--- a/chroma.xlsx
+++ b/chroma.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ris2006\Desktop\VSproj\CompositeSignal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBCCE30-76DC-49AB-A087-0D37245C6F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D39A69-C174-4EEC-912F-FE12376398E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C1C8B4F-A466-45AB-A3EC-474CDE1257F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C1C8B4F-A466-45AB-A3EC-474CDE1257F8}"/>
   </bookViews>
   <sheets>
     <sheet name="信号" sheetId="2" r:id="rId1"/>
-    <sheet name="RMS" sheetId="1" r:id="rId2"/>
-    <sheet name="級数展開" sheetId="3" r:id="rId3"/>
+    <sheet name="hsv" sheetId="4" r:id="rId2"/>
+    <sheet name="RMS" sheetId="1" r:id="rId3"/>
+    <sheet name="級数展開" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
@@ -195,17 +196,82 @@
     <t>Offset Inc</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Re</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Im</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +287,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +421,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7548,7 +7641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829E4477-D834-4F85-B8F4-3BACC7307930}">
   <dimension ref="A1:R402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -27329,6 +27422,6201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1969E2-3C04-42EA-A05B-E93D1FB0505C}">
+  <dimension ref="A1:X101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.25" style="10" customWidth="1"/>
+    <col min="4" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.25" customWidth="1"/>
+    <col min="8" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="1.25" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.25" customWidth="1"/>
+    <col min="16" max="18" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.25" customWidth="1"/>
+    <col min="20" max="20" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <f>A2/$X$2-INT(A2/$X$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <f>(IF(B2&lt;1/6,1,IF(B2&lt;2/6,2-B2*6,IF(B2&lt;4/6,0,IF(B2&lt;5/6,B2*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <f>(IF(B2&lt;2/6,0,IF(B2&lt;3/6,B2*6-2,IF(B2&lt;5/6,1,6-B2*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <f>(IF(B2&lt;1/6,B2*6,IF(B2&lt;3/6,1,IF(B2&lt;4/6,4-B2*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
+        <f>((COS(2*PI()*B2)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <f>((COS(2*PI()*B2+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="J2" s="10">
+        <f>((COS(2*PI()*B2-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10">
+        <f>H2*$U$5+I2*$U$6+J2*$U$7</f>
+        <v>0.47425000000000006</v>
+      </c>
+      <c r="M2" s="10">
+        <f>H2*$V$5+I2*$V$6+J2*$V$7</f>
+        <v>-0.12899999999999998</v>
+      </c>
+      <c r="N2" s="10">
+        <f>H2*$W$5+I2*$W$6+J2*$W$7</f>
+        <v>0.38324999999999998</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10">
+        <f>L2*$U$9+M2*$V$9+N2*$W$9</f>
+        <v>0.99968575000000004</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>L2*$U$10+M2*$V$10+N2*$W$10</f>
+        <v>0.25008550000000013</v>
+      </c>
+      <c r="R2" s="10">
+        <f>L2*$U$11+M2*$V$11+N2*$W$11</f>
+        <v>0.2508220000000001</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="U2" s="4">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <f>A3/$X$2-INT(A3/$X$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="10">
+        <f>(IF(B3&lt;1/6,1,IF(B3&lt;2/6,2-B3*6,IF(B3&lt;4/6,0,IF(B3&lt;5/6,B3*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <f>(IF(B3&lt;2/6,0,IF(B3&lt;3/6,B3*6-2,IF(B3&lt;5/6,1,6-B3*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <f>(IF(B3&lt;1/6,B3*6,IF(B3&lt;3/6,1,IF(B3&lt;4/6,4-B3*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
+        <f>((COS(2*PI()*B3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99901336421413578</v>
+      </c>
+      <c r="I3" s="10">
+        <f>((COS(2*PI()*B3+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.223304225378328</v>
+      </c>
+      <c r="J3" s="10">
+        <f>((COS(2*PI()*B3-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.27768241040753638</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L49" si="0">H3*$U$5+I3*$U$6+J3*$U$7</f>
+        <v>0.46144037098356422</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M66" si="1">H3*$V$5+I3*$V$6+J3*$V$7</f>
+        <v>-0.10563471932983343</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N66" si="2">H3*$W$5+I3*$W$6+J3*$W$7</f>
+        <v>0.39187398058767348</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P49" si="3">L3*$U$9+M3*$V$9+N3*$W$9</f>
+        <v>0.99869959836926459</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q66" si="4">L3*$U$10+M3*$V$10+N3*$W$10</f>
+        <v>0.22340559822819217</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:R66" si="5">L3*$U$11+M3*$V$11+N3*$W$11</f>
+        <v>0.27848103710429273</v>
+      </c>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <f>A4/$X$2-INT(A4/$X$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="10">
+        <f>(IF(B4&lt;1/6,1,IF(B4&lt;2/6,2-B4*6,IF(B4&lt;4/6,0,IF(B4&lt;5/6,B4*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <f>(IF(B4&lt;2/6,0,IF(B4&lt;3/6,B4*6-2,IF(B4&lt;5/6,1,6-B4*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <f>(IF(B4&lt;1/6,B4*6,IF(B4&lt;3/6,1,IF(B4&lt;4/6,4-B4*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
+        <f>((COS(2*PI()*B4)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99605735065723899</v>
+      </c>
+      <c r="I4" s="10">
+        <f>((COS(2*PI()*B4+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.19770044256881258</v>
+      </c>
+      <c r="J4" s="10">
+        <f>((COS(2*PI()*B4-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.30624220677394859</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44878291920663754</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="1"/>
+        <v>-8.1852546682384814E-2</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="2"/>
+        <v>0.39895141360415959</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10">
+        <f t="shared" si="3"/>
+        <v>0.9957453072579403</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="4"/>
+        <v>0.19781728819621547</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" si="5"/>
+        <v>0.30701430835274701</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="U4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <f>A5/$X$2-INT(A5/$X$2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="10">
+        <f>(IF(B5&lt;1/6,1,IF(B5&lt;2/6,2-B5*6,IF(B5&lt;4/6,0,IF(B5&lt;5/6,B5*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <f>(IF(B5&lt;2/6,0,IF(B5&lt;3/6,B5*6-2,IF(B5&lt;5/6,1,6-B5*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <f>(IF(B5&lt;1/6,B5*6,IF(B5&lt;3/6,1,IF(B5&lt;4/6,4-B5*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
+        <f>((COS(2*PI()*B5)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99114362536434442</v>
+      </c>
+      <c r="I5" s="10">
+        <f>((COS(2*PI()*B5+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.17328969800494742</v>
+      </c>
+      <c r="J5" s="10">
+        <f>((COS(2*PI()*B5-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.33556667663070849</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.43632759784874392</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.774733942805238E-2</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.40445436765471371</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.99083453590335635</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="4"/>
+        <v>0.17342155527357933</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="5"/>
+        <v>0.3363092059593572</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="V5" s="4">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <f>A6/$X$2-INT(A6/$X$2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="10">
+        <f>(IF(B6&lt;1/6,1,IF(B6&lt;2/6,2-B6*6,IF(B6&lt;4/6,0,IF(B6&lt;5/6,B6*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <f>(IF(B6&lt;2/6,0,IF(B6&lt;3/6,B6*6-2,IF(B6&lt;5/6,1,6-B6*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <f>(IF(B6&lt;1/6,B6*6,IF(B6&lt;3/6,1,IF(B6&lt;4/6,4-B6*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.24</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <f>((COS(2*PI()*B6)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.98429158056431554</v>
+      </c>
+      <c r="I6" s="10">
+        <f>((COS(2*PI()*B6+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.1501683297433174</v>
+      </c>
+      <c r="J6" s="10">
+        <f>((COS(2*PI()*B6-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.36554008969236718</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42412356237298748</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="1"/>
+        <v>-3.3414229807247231E-2</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="2"/>
+        <v>0.40836112509375888</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10">
+        <f t="shared" si="3"/>
+        <v>0.98398666487653097</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="4"/>
+        <v>0.15031467827277889</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="5"/>
+        <v>0.3662501163468353</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="V6" s="4">
+        <v>-0.33900000000000002</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <f>A7/$X$2-INT(A7/$X$2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="10">
+        <f>(IF(B7&lt;1/6,1,IF(B7&lt;2/6,2-B7*6,IF(B7&lt;4/6,0,IF(B7&lt;5/6,B7*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <f>(IF(B7&lt;2/6,0,IF(B7&lt;3/6,B7*6-2,IF(B7&lt;5/6,1,6-B7*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <f>(IF(B7&lt;1/6,B7*6,IF(B7&lt;3/6,1,IF(B7&lt;4/6,4-B7*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <f>((COS(2*PI()*B7)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.97552825814757682</v>
+      </c>
+      <c r="I7" s="10">
+        <f>((COS(2*PI()*B7+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.12842758726130299</v>
+      </c>
+      <c r="J7" s="10">
+        <f>((COS(2*PI()*B7-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.39604415459112041</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.41221897653189804</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="1"/>
+        <v>-8.949249486902372E-3</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.41065626773451108</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10">
+        <f t="shared" si="3"/>
+        <v>0.97522871959591284</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="4"/>
+        <v>0.12858784948080854</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="5"/>
+        <v>0.39671887642058312</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.114</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="W7" s="4">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <f>A8/$X$2-INT(A8/$X$2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="10">
+        <f>(IF(B8&lt;1/6,1,IF(B8&lt;2/6,2-B8*6,IF(B8&lt;4/6,0,IF(B8&lt;5/6,B8*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <f>(IF(B8&lt;2/6,0,IF(B8&lt;3/6,B8*6-2,IF(B8&lt;5/6,1,6-B8*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <f>(IF(B8&lt;1/6,B8*6,IF(B8&lt;3/6,1,IF(B8&lt;4/6,4-B8*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.36</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f>((COS(2*PI()*B8)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.96488824294412567</v>
+      </c>
+      <c r="I8" s="10">
+        <f>((COS(2*PI()*B8+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.10815327133708014</v>
+      </c>
+      <c r="J8" s="10">
+        <f>((COS(2*PI()*B8-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.42695848571879436</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.40066082228710215</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5551049432644154E-2</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="2"/>
+        <v>0.41133073769751799</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10">
+        <f t="shared" si="3"/>
+        <v>0.96459526367039938</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="4"/>
+        <v>0.10832681476486616</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="5"/>
+        <v>0.42759523990444182</v>
+      </c>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <f>A9/$X$2-INT(A9/$X$2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <f>(IF(B9&lt;1/6,1,IF(B9&lt;2/6,2-B9*6,IF(B9&lt;4/6,0,IF(B9&lt;5/6,B9*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <f>(IF(B9&lt;2/6,0,IF(B9&lt;3/6,B9*6-2,IF(B9&lt;5/6,1,6-B9*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <f>(IF(B9&lt;1/6,B9*6,IF(B9&lt;3/6,1,IF(B9&lt;4/6,4-B9*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f>((COS(2*PI()*B9)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.95241352623300979</v>
+      </c>
+      <c r="I9" s="10">
+        <f>((COS(2*PI()*B9+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>8.9425395433147981E-2</v>
+      </c>
+      <c r="J9" s="10">
+        <f>((COS(2*PI()*B9-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.45816107833384245</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10">
+        <f>H9*$U$5+I9*$U$6+J9*$U$7</f>
+        <v>0.38949471439298583</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="1"/>
+        <v>3.998997546467864E-2</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.41038187315797175</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10">
+        <f t="shared" si="3"/>
+        <v>0.9521282624925651</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="4"/>
+        <v>8.9611535172589518E-2</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="5"/>
+        <v>0.45875735189780925</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>1.371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <f>A10/$X$2-INT(A10/$X$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="D10" s="10">
+        <f>(IF(B10&lt;1/6,1,IF(B10&lt;2/6,2-B10*6,IF(B10&lt;4/6,0,IF(B10&lt;5/6,B10*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <f>(IF(B10&lt;2/6,0,IF(B10&lt;3/6,B10*6-2,IF(B10&lt;5/6,1,6-B10*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <f>(IF(B10&lt;1/6,B10*6,IF(B10&lt;3/6,1,IF(B10&lt;4/6,4-B10*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.48</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <f>((COS(2*PI()*B10)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.93815334002193174</v>
+      </c>
+      <c r="I10" s="10">
+        <f>((COS(2*PI()*B10+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>7.2317869919746702E-2</v>
+      </c>
+      <c r="J10" s="10">
+        <f>((COS(2*PI()*B10-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.48952879005832167</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3787647203760976</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="1"/>
+        <v>6.4271079333235975E-2</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.40781341885071487</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.93787691762042757</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="4"/>
+        <v>7.2515871362331341E-2</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="5"/>
+        <v>0.49008222978126231</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>-0.33600000000000002</v>
+      </c>
+      <c r="W10" s="4">
+        <v>-0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <f>A11/$X$2-INT(A11/$X$2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="10">
+        <f>(IF(B11&lt;1/6,1,IF(B11&lt;2/6,2-B11*6,IF(B11&lt;4/6,0,IF(B11&lt;5/6,B11*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <f>(IF(B11&lt;2/6,0,IF(B11&lt;3/6,B11*6-2,IF(B11&lt;5/6,1,6-B11*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f>(IF(B11&lt;1/6,B11*6,IF(B11&lt;3/6,1,IF(B11&lt;4/6,4-B11*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.54</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f>((COS(2*PI()*B11)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.92216396275100754</v>
+      </c>
+      <c r="I11" s="10">
+        <f>((COS(2*PI()*B11+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>5.6898210384392744E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <f>((COS(2*PI()*B11-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.52093782686459988</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.36851318662075416</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8298534614328128E-2</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.40363551129148295</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.92189747260137733</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="4"/>
+        <v>5.7107292108884822E-2</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="5"/>
+        <v>0.52144624857277044</v>
+      </c>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1.732</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <f>A12/$X$2-INT(A12/$X$2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="10">
+        <f>(IF(B12&lt;1/6,1,IF(B12&lt;2/6,2-B12*6,IF(B12&lt;4/6,0,IF(B12&lt;5/6,B12*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <f>(IF(B12&lt;2/6,0,IF(B12&lt;3/6,B12*6-2,IF(B12&lt;5/6,1,6-B12*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <f>(IF(B12&lt;1/6,B12*6,IF(B12&lt;3/6,1,IF(B12&lt;4/6,4-B12*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <f>((COS(2*PI()*B12)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.90450849718747373</v>
+      </c>
+      <c r="I12" s="10">
+        <f>((COS(2*PI()*B12+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>4.3227271178699622E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <f>((COS(2*PI()*B12-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.55226423163382687</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.35878057124720758</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.11197751591906091</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.397864638772708</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.90425299100459022</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="4"/>
+        <v>4.3446608035052903E-2</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="5"/>
+        <v>0.5527256288190211</v>
+      </c>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <f>A13/$X$2-INT(A13/$X$2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="10">
+        <f>(IF(B13&lt;1/6,1,IF(B13&lt;2/6,2-B13*6,IF(B13&lt;4/6,0,IF(B13&lt;5/6,B13*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <f>(IF(B13&lt;2/6,0,IF(B13&lt;3/6,B13*6-2,IF(B13&lt;5/6,1,6-B13*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <f>(IF(B13&lt;1/6,B13*6,IF(B13&lt;3/6,1,IF(B13&lt;4/6,4-B13*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.66</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>((COS(2*PI()*B13)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.88525662138789463</v>
+      </c>
+      <c r="I13" s="10">
+        <f>((COS(2*PI()*B13+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>3.1359005254054273E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <f>((COS(2*PI()*B13-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.58338437335805127</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34960528444192818</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.13521457312612192</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.39052357629176071</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.88501310753793216</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="4"/>
+        <v>3.1587731619902248E-2</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
+        <v>0.58379692509637138</v>
+      </c>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <f>A14/$X$2-INT(A14/$X$2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="10">
+        <f>(IF(B14&lt;1/6,1,IF(B14&lt;2/6,2-B14*6,IF(B14&lt;4/6,0,IF(B14&lt;5/6,B14*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <f>(IF(B14&lt;2/6,0,IF(B14&lt;3/6,B14*6-2,IF(B14&lt;5/6,1,6-B14*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <f>(IF(B14&lt;1/6,B14*6,IF(B14&lt;3/6,1,IF(B14&lt;4/6,4-B14*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
+        <f>((COS(2*PI()*B14)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.86448431371070578</v>
+      </c>
+      <c r="I14" s="10">
+        <f>((COS(2*PI()*B14+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>2.1340251233966434E-2</v>
+      </c>
+      <c r="J14" s="10">
+        <f>((COS(2*PI()*B14-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.6141754350553279</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34102353687014669</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15791800018671659</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.38164129566844085</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10">
+        <f t="shared" si="3"/>
+        <v>0.86425375323157905</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="4"/>
+        <v>2.1577464430838189E-2</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.61453751319353978</v>
+      </c>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <f>A15/$X$2-INT(A15/$X$2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="D15" s="10">
+        <f>(IF(B15&lt;1/6,1,IF(B15&lt;2/6,2-B15*6,IF(B15&lt;4/6,0,IF(B15&lt;5/6,B15*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <f>(IF(B15&lt;2/6,0,IF(B15&lt;3/6,B15*6-2,IF(B15&lt;5/6,1,6-B15*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <f>(IF(B15&lt;1/6,B15*6,IF(B15&lt;3/6,1,IF(B15&lt;4/6,4-B15*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.78</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>((COS(2*PI()*B15)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.84227355296434436</v>
+      </c>
+      <c r="I15" s="10">
+        <f>((COS(2*PI()*B15+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>1.3210548563419855E-2</v>
+      </c>
+      <c r="J15" s="10">
+        <f>((COS(2*PI()*B15-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.64451589847223589</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33306919676890134</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.17999819704644601</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.37125285120644069</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10">
+        <f t="shared" si="3"/>
+        <v>0.84205685577293155</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="4"/>
+        <v>1.3455312419199894E-2</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="5"/>
+        <v>0.6448260740533458</v>
+      </c>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <f>A16/$X$2-INT(A16/$X$2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D16" s="10">
+        <f>(IF(B16&lt;1/6,1,IF(B16&lt;2/6,2-B16*6,IF(B16&lt;4/6,0,IF(B16&lt;5/6,B16*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <f>(IF(B16&lt;2/6,0,IF(B16&lt;3/6,B16*6-2,IF(B16&lt;5/6,1,6-B16*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <f>(IF(B16&lt;1/6,B16*6,IF(B16&lt;3/6,1,IF(B16&lt;4/6,4-B16*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <f>((COS(2*PI()*B16)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.81871199487434487</v>
+      </c>
+      <c r="I16" s="10">
+        <f>((COS(2*PI()*B16+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>7.0019814647475642E-3</v>
+      </c>
+      <c r="J16" s="10">
+        <f>((COS(2*PI()*B16-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.67428602366090773</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32577365628457944</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.20136802325578715</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.35939924135002294</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10">
+        <f t="shared" si="3"/>
+        <v>0.81851001617546082</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="4"/>
+        <v>7.2533300083189589E-3</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="5"/>
+        <v>0.6745430725636028</v>
+      </c>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <f>A17/$X$2-INT(A17/$X$2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="10">
+        <f>(IF(B17&lt;1/6,1,IF(B17&lt;2/6,2-B17*6,IF(B17&lt;4/6,0,IF(B17&lt;5/6,B17*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <f>(IF(B17&lt;2/6,0,IF(B17&lt;3/6,B17*6-2,IF(B17&lt;5/6,1,6-B17*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <f>(IF(B17&lt;1/6,B17*6,IF(B17&lt;3/6,1,IF(B17&lt;4/6,4-B17*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f>((COS(2*PI()*B17)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.79389262614623657</v>
+      </c>
+      <c r="I17" s="10">
+        <f>((COS(2*PI()*B17+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>2.7390523158633551E-3</v>
+      </c>
+      <c r="J17" s="10">
+        <f>((COS(2*PI()*B17-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.70336832153790019</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31916570758245716</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.22194314187363665</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34612724688189167</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10">
+        <f t="shared" si="3"/>
+        <v>0.79370616305753061</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="4"/>
+        <v>2.9959935893548728E-3</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="5"/>
+        <v>0.70357122930759575</v>
+      </c>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <f>A18/$X$2-INT(A18/$X$2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="D18" s="10">
+        <f>(IF(B18&lt;1/6,1,IF(B18&lt;2/6,2-B18*6,IF(B18&lt;4/6,0,IF(B18&lt;5/6,B18*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <f>(IF(B18&lt;2/6,0,IF(B18&lt;3/6,B18*6-2,IF(B18&lt;5/6,1,6-B18*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <f>(IF(B18&lt;1/6,B18*6,IF(B18&lt;3/6,1,IF(B18&lt;4/6,4-B18*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.96</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <f>((COS(2*PI()*B18)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.76791339748949827</v>
+      </c>
+      <c r="I18" s="10">
+        <f>((COS(2*PI()*B18+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>4.3858495057080837E-4</v>
+      </c>
+      <c r="J18" s="10">
+        <f>((COS(2*PI()*B18-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.73164801755993103</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31327142921717721</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.24164235230668757</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33148924630081505</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10">
+        <f t="shared" si="3"/>
+        <v>0.76774318589559465</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="4"/>
+        <v>7.0010492416130998E-4</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="5"/>
+        <v>0.73179598341236007</v>
+      </c>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <f>A19/$X$2-INT(A19/$X$2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="D19" s="10">
+        <f>(IF(B19&lt;1/6,1,IF(B19&lt;2/6,2-B19*6,IF(B19&lt;4/6,0,IF(B19&lt;5/6,B19*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.98</v>
+      </c>
+      <c r="E19" s="10">
+        <f>(IF(B19&lt;2/6,0,IF(B19&lt;3/6,B19*6-2,IF(B19&lt;5/6,1,6-B19*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <f>(IF(B19&lt;1/6,B19*6,IF(B19&lt;3/6,1,IF(B19&lt;4/6,4-B19*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>((COS(2*PI()*B19)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.74087683705085761</v>
+      </c>
+      <c r="I19" s="10">
+        <f>((COS(2*PI()*B19+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>1.096582625772502E-4</v>
+      </c>
+      <c r="J19" s="10">
+        <f>((COS(2*PI()*B19-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.75901350468656525</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30811408321260769</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.26038791077107371</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31554300910762029</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10">
+        <f t="shared" si="3"/>
+        <v>0.74072354869915513</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="4"/>
+        <v>3.7472483640799137E-4</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="5"/>
+        <v>0.75910594466810732</v>
+      </c>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <f>A20/$X$2-INT(A20/$X$2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="D20" s="10">
+        <f>(IF(B20&lt;1/6,1,IF(B20&lt;2/6,2-B20*6,IF(B20&lt;4/6,0,IF(B20&lt;5/6,B20*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E20" s="10">
+        <f>(IF(B20&lt;2/6,0,IF(B20&lt;3/6,B20*6-2,IF(B20&lt;5/6,1,6-B20*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <f>(IF(B20&lt;1/6,B20*6,IF(B20&lt;3/6,1,IF(B20&lt;4/6,4-B20*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <f>((COS(2*PI()*B20)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.71288964578253633</v>
+      </c>
+      <c r="I20" s="10">
+        <f>((COS(2*PI()*B20+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>1.7535703752478149E-3</v>
+      </c>
+      <c r="J20" s="10">
+        <f>((COS(2*PI()*B20-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.78535678384221597</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30371402325726149</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.27810583711156711</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="2"/>
+        <v>0.29835146781536609</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.71275388563212838</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="4"/>
+        <v>2.0211374526494241E-3</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="5"/>
+        <v>0.78539333313449577</v>
+      </c>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <f>A21/$X$2-INT(A21/$X$2)</f>
+        <v>0.19</v>
+      </c>
+      <c r="D21" s="10">
+        <f>(IF(B21&lt;1/6,1,IF(B21&lt;2/6,2-B21*6,IF(B21&lt;4/6,0,IF(B21&lt;5/6,B21*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="E21" s="10">
+        <f>(IF(B21&lt;2/6,0,IF(B21&lt;3/6,B21*6-2,IF(B21&lt;5/6,1,6-B21*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <f>(IF(B21&lt;1/6,B21*6,IF(B21&lt;3/6,1,IF(B21&lt;4/6,4-B21*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>((COS(2*PI()*B21)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.68406227634233907</v>
+      </c>
+      <c r="I21" s="10">
+        <f>((COS(2*PI()*B21+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>5.3638335185058339E-3</v>
+      </c>
+      <c r="J21" s="10">
+        <f>((COS(2*PI()*B21-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.81057389013915526</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30008861437758599</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29472620676745254</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="2"/>
+        <v>0.27998246958346484</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.68394458017651627</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="4"/>
+        <v>5.6328451344634933E-3</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="5"/>
+        <v>0.81055440449881377</v>
+      </c>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <f>A22/$X$2-INT(A22/$X$2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="10">
+        <f>(IF(B22&lt;1/6,1,IF(B22&lt;2/6,2-B22*6,IF(B22&lt;4/6,0,IF(B22&lt;5/6,B22*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="E22" s="10">
+        <f>(IF(B22&lt;2/6,0,IF(B22&lt;3/6,B22*6-2,IF(B22&lt;5/6,1,6-B22*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <f>(IF(B22&lt;1/6,B22*6,IF(B22&lt;3/6,1,IF(B22&lt;4/6,4-B22*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10">
+        <f>((COS(2*PI()*B22)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.65450849718747373</v>
+      </c>
+      <c r="I22" s="10">
+        <f>((COS(2*PI()*B22+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>1.0926199633097156E-2</v>
+      </c>
+      <c r="J22" s="10">
+        <f>((COS(2*PI()*B22-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.83456530317942912</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29725216440613761</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.3101834267328229</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="2"/>
+        <v>0.26050850845594087</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10">
+        <f t="shared" si="3"/>
+        <v>0.65440932949923258</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1195594121662378E-2</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="5"/>
+        <v>0.83448985950738686</v>
+      </c>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <f>A23/$X$2-INT(A23/$X$2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="D23" s="10">
+        <f>(IF(B23&lt;1/6,1,IF(B23&lt;2/6,2-B23*6,IF(B23&lt;4/6,0,IF(B23&lt;5/6,B23*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.74</v>
+      </c>
+      <c r="E23" s="10">
+        <f>(IF(B23&lt;2/6,0,IF(B23&lt;3/6,B23*6-2,IF(B23&lt;5/6,1,6-B23*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <f>(IF(B23&lt;1/6,B23*6,IF(B23&lt;3/6,1,IF(B23&lt;4/6,4-B23*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>((COS(2*PI()*B23)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.62434494358242754</v>
+      </c>
+      <c r="I23" s="10">
+        <f>((COS(2*PI()*B23+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>1.8418716601170892E-2</v>
+      </c>
+      <c r="J23" s="10">
+        <f>((COS(2*PI()*B23-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.85723633981640168</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29521586751510293</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="1"/>
+        <v>0.32441649442220677</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="2"/>
+        <v>0.24000643926055801</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10">
+        <f t="shared" si="3"/>
+        <v>0.62426469574132804</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="4"/>
+        <v>1.8687430785371967E-2</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="5"/>
+        <v>0.85710523585436516</v>
+      </c>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <f>A24/$X$2-INT(A24/$X$2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="D24" s="10">
+        <f>(IF(B24&lt;1/6,1,IF(B24&lt;2/6,2-B24*6,IF(B24&lt;4/6,0,IF(B24&lt;5/6,B24*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="E24" s="10">
+        <f>(IF(B24&lt;2/6,0,IF(B24&lt;3/6,B24*6-2,IF(B24&lt;5/6,1,6-B24*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <f>(IF(B24&lt;1/6,B24*6,IF(B24&lt;3/6,1,IF(B24&lt;4/6,4-B24*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <f>((COS(2*PI()*B24)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.59369065729286241</v>
+      </c>
+      <c r="I24" s="10">
+        <f>((COS(2*PI()*B24+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>2.7811814881259389E-2</v>
+      </c>
+      <c r="J24" s="10">
+        <f>((COS(2*PI()*B24-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.8784975278258782</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29398776003801524</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="1"/>
+        <v>0.33736923841990452</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21855717429792576</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10">
+        <f t="shared" si="3"/>
+        <v>0.59362964600047152</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="4"/>
+        <v>2.8078788268975141E-2</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="5"/>
+        <v>0.87831128098128985</v>
+      </c>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10">
+        <f>A25/$X$2-INT(A25/$X$2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="D25" s="10">
+        <f>(IF(B25&lt;1/6,1,IF(B25&lt;2/6,2-B25*6,IF(B25&lt;4/6,0,IF(B25&lt;5/6,B25*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.61999999999999988</v>
+      </c>
+      <c r="E25" s="10">
+        <f>(IF(B25&lt;2/6,0,IF(B25&lt;3/6,B25*6-2,IF(B25&lt;5/6,1,6-B25*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <f>(IF(B25&lt;1/6,B25*6,IF(B25&lt;3/6,1,IF(B25&lt;4/6,4-B25*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f>((COS(2*PI()*B25)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.56266661678215213</v>
+      </c>
+      <c r="I25" s="10">
+        <f>((COS(2*PI()*B25+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>3.9068424205749741E-2</v>
+      </c>
+      <c r="J25" s="10">
+        <f>((COS(2*PI()*B25-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.89826495901209813</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29357268875401776</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="1"/>
+        <v>0.34899054016290282</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19624536401761467</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10">
+        <f t="shared" si="3"/>
+        <v>0.5626250828221675</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" si="4"/>
+        <v>3.9332603174987379E-2</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="5"/>
+        <v>0.89802430431616542</v>
+      </c>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <f>A26/$X$2-INT(A26/$X$2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="D26" s="10">
+        <f>(IF(B26&lt;1/6,1,IF(B26&lt;2/6,2-B26*6,IF(B26&lt;4/6,0,IF(B26&lt;5/6,B26*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E26" s="10">
+        <f>(IF(B26&lt;2/6,0,IF(B26&lt;3/6,B26*6-2,IF(B26&lt;5/6,1,6-B26*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <f>(IF(B26&lt;1/6,B26*6,IF(B26&lt;3/6,1,IF(B26&lt;4/6,4-B26*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
+        <f>((COS(2*PI()*B26)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.53139525976465674</v>
+      </c>
+      <c r="I26" s="10">
+        <f>((COS(2*PI()*B26+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>5.2144119880293494E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f>((COS(2*PI()*B26-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.91646062035504983</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29397229175984035</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>0.35923453568249003</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="2"/>
+        <v>0.17315906294150488</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.53137336705264349</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="4"/>
+        <v>5.2404461837353311E-2</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="5"/>
+        <v>0.91616650756191298</v>
+      </c>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <f>A27/$X$2-INT(A27/$X$2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="10">
+        <f>(IF(B27&lt;1/6,1,IF(B27&lt;2/6,2-B27*6,IF(B27&lt;4/6,0,IF(B27&lt;5/6,B27*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="10">
+        <f>(IF(B27&lt;2/6,0,IF(B27&lt;3/6,B27*6-2,IF(B27&lt;5/6,1,6-B27*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f>(IF(B27&lt;1/6,B27*6,IF(B27&lt;3/6,1,IF(B27&lt;4/6,4-B27*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f>((COS(2*PI()*B27)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="10">
+        <f>((COS(2*PI()*B27+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>6.6987298107780591E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f>((COS(2*PI()*B27-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.93301270189221941</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29518499200498022</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>0.36806079660838653</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.14938938215281569</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.49999783493649053</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="4"/>
+        <v>6.7242775601896981E-2</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.93266629173070559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <f>A28/$X$2-INT(A28/$X$2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="D28" s="10">
+        <f>(IF(B28&lt;1/6,1,IF(B28&lt;2/6,2-B28*6,IF(B28&lt;4/6,0,IF(B28&lt;5/6,B28*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="E28" s="10">
+        <f>(IF(B28&lt;2/6,0,IF(B28&lt;3/6,B28*6-2,IF(B28&lt;5/6,1,6-B28*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <f>(IF(B28&lt;1/6,B28*6,IF(B28&lt;3/6,1,IF(B28&lt;4/6,4-B28*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <f>((COS(2*PI()*B28)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.46860474023534332</v>
+      </c>
+      <c r="I28" s="10">
+        <f>((COS(2*PI()*B28+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>8.3539379644950174E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <f>((COS(2*PI()*B28-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.94785588011970656</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29720600351559995</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="1"/>
+        <v>0.37543448972105287</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="2"/>
+        <v>0.12503012972228611</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.46862231136485422</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="4"/>
+        <v>8.3788984423170482E-2</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.94745853971246352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <f>A29/$X$2-INT(A29/$X$2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="D29" s="10">
+        <f>(IF(B29&lt;1/6,1,IF(B29&lt;2/6,2-B29*6,IF(B29&lt;4/6,0,IF(B29&lt;5/6,B29*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.37999999999999989</v>
+      </c>
+      <c r="E29" s="10">
+        <f>(IF(B29&lt;2/6,0,IF(B29&lt;3/6,B29*6-2,IF(B29&lt;5/6,1,6-B29*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <f>(IF(B29&lt;1/6,B29*6,IF(B29&lt;3/6,1,IF(B29&lt;4/6,4-B29*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <f>((COS(2*PI()*B29)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.43733338321784782</v>
+      </c>
+      <c r="I29" s="10">
+        <f>((COS(2*PI()*B29+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.10173504098790181</v>
+      </c>
+      <c r="J29" s="10">
+        <f>((COS(2*PI()*B29-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.96093157579425026</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30002735028257937</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38132651442249332</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="2"/>
+        <v>0.10017744049057549</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.43737062119515835</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="4"/>
+        <v>0.10197778797419993</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="5"/>
+        <v>0.96048487326233789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <f>A30/$X$2-INT(A30/$X$2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D30" s="10">
+        <f>(IF(B30&lt;1/6,1,IF(B30&lt;2/6,2-B30*6,IF(B30&lt;4/6,0,IF(B30&lt;5/6,B30*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.31999999999999984</v>
+      </c>
+      <c r="E30" s="10">
+        <f>(IF(B30&lt;2/6,0,IF(B30&lt;3/6,B30*6-2,IF(B30&lt;5/6,1,6-B30*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <f>(IF(B30&lt;1/6,B30*6,IF(B30&lt;3/6,1,IF(B30&lt;4/6,4-B30*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
+        <f>((COS(2*PI()*B30)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.40630934270713759</v>
+      </c>
+      <c r="I30" s="10">
+        <f>((COS(2*PI()*B30+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.1215024721741218</v>
+      </c>
+      <c r="J30" s="10">
+        <f>((COS(2*PI()*B30-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.97218818511874061</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30363789773918004</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38571361758302153</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="2"/>
+        <v>7.4929396667967718E-2</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10">
+        <f t="shared" si="3"/>
+        <v>0.40636610057096378</v>
+      </c>
+      <c r="Q30" s="10">
+        <f t="shared" si="4"/>
+        <v>0.12173740335704332</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" si="5"/>
+        <v>0.97169388339297336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <f>A31/$X$2-INT(A31/$X$2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D31" s="10">
+        <f>(IF(B31&lt;1/6,1,IF(B31&lt;2/6,2-B31*6,IF(B31&lt;4/6,0,IF(B31&lt;5/6,B31*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.26000000000000023</v>
+      </c>
+      <c r="E31" s="10">
+        <f>(IF(B31&lt;2/6,0,IF(B31&lt;3/6,B31*6-2,IF(B31&lt;5/6,1,6-B31*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <f>(IF(B31&lt;1/6,B31*6,IF(B31&lt;3/6,1,IF(B31&lt;4/6,4-B31*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <f>((COS(2*PI()*B31)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.37565505641757269</v>
+      </c>
+      <c r="I31" s="10">
+        <f>((COS(2*PI()*B31+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.14276366018359815</v>
+      </c>
+      <c r="J31" s="10">
+        <f>((COS(2*PI()*B31-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.98158128339882911</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30802339670409284</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38857848531073941</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="2"/>
+        <v>4.9385640748696821E-2</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37573111017055616</v>
+      </c>
+      <c r="Q31" s="10">
+        <f t="shared" si="4"/>
+        <v>0.142989848397094</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" si="5"/>
+        <v>0.98104133326229348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <f>A32/$X$2-INT(A32/$X$2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="10">
+        <f>(IF(B32&lt;1/6,1,IF(B32&lt;2/6,2-B32*6,IF(B32&lt;4/6,0,IF(B32&lt;5/6,B32*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="E32" s="10">
+        <f>(IF(B32&lt;2/6,0,IF(B32&lt;3/6,B32*6-2,IF(B32&lt;5/6,1,6-B32*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <f>(IF(B32&lt;1/6,B32*6,IF(B32&lt;3/6,1,IF(B32&lt;4/6,4-B32*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
+        <f>((COS(2*PI()*B32)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.34549150281252633</v>
+      </c>
+      <c r="I32" s="10">
+        <f>((COS(2*PI()*B32+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.16543469682057077</v>
+      </c>
+      <c r="J32" s="10">
+        <f>((COS(2*PI()*B32-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.98907380036690284</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31316653961644736</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38990981128155938</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3646982267543734E-2</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34558655230524982</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" si="4"/>
+        <v>0.16565124940309786</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" si="5"/>
+        <v>0.9884903327561082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10">
+        <f>A33/$X$2-INT(A33/$X$2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="D33" s="10">
+        <f>(IF(B33&lt;1/6,1,IF(B33&lt;2/6,2-B33*6,IF(B33&lt;4/6,0,IF(B33&lt;5/6,B33*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.14000000000000012</v>
+      </c>
+      <c r="E33" s="10">
+        <f>(IF(B33&lt;2/6,0,IF(B33&lt;3/6,B33*6-2,IF(B33&lt;5/6,1,6-B33*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <f>(IF(B33&lt;1/6,B33*6,IF(B33&lt;3/6,1,IF(B33&lt;4/6,4-B33*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10">
+        <f>((COS(2*PI()*B33)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.31593772365766104</v>
+      </c>
+      <c r="I33" s="10">
+        <f>((COS(2*PI()*B33+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.18942610986084474</v>
+      </c>
+      <c r="J33" s="10">
+        <f>((COS(2*PI()*B33-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99463616648149422</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31904702884084685</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38970234136009946</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.1850000493407601E-3</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10">
+        <f t="shared" si="3"/>
+        <v>0.31605139377320068</v>
+      </c>
+      <c r="Q33" s="10">
+        <f t="shared" si="4"/>
+        <v>0.18963217217829328</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99401148407653905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10">
+        <f>A34/$X$2-INT(A34/$X$2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="D34" s="10">
+        <f>(IF(B34&lt;1/6,1,IF(B34&lt;2/6,2-B34*6,IF(B34&lt;4/6,0,IF(B34&lt;5/6,B34*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="E34" s="10">
+        <f>(IF(B34&lt;2/6,0,IF(B34&lt;3/6,B34*6-2,IF(B34&lt;5/6,1,6-B34*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <f>(IF(B34&lt;1/6,B34*6,IF(B34&lt;3/6,1,IF(B34&lt;4/6,4-B34*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10">
+        <f>((COS(2*PI()*B34)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.28711035421746367</v>
+      </c>
+      <c r="I34" s="10">
+        <f>((COS(2*PI()*B34+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.21464321615778431</v>
+      </c>
+      <c r="J34" s="10">
+        <f>((COS(2*PI()*B34-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99824642962475219</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32564165677286278</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38795689433535574</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.8008359169262198E-2</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10">
+        <f t="shared" si="3"/>
+        <v>0.28724219635180431</v>
+      </c>
+      <c r="Q34" s="10">
+        <f t="shared" si="4"/>
+        <v>0.21483797497632826</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99758299776169901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10">
+        <f>A35/$X$2-INT(A35/$X$2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="D35" s="10">
+        <f>(IF(B35&lt;1/6,1,IF(B35&lt;2/6,2-B35*6,IF(B35&lt;4/6,0,IF(B35&lt;5/6,B35*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E35" s="10">
+        <f>(IF(B35&lt;2/6,0,IF(B35&lt;3/6,B35*6-2,IF(B35&lt;5/6,1,6-B35*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <f>(IF(B35&lt;1/6,B35*6,IF(B35&lt;3/6,1,IF(B35&lt;4/6,4-B35*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10">
+        <f>((COS(2*PI()*B35)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.25912316294914228</v>
+      </c>
+      <c r="I35" s="10">
+        <f>((COS(2*PI()*B35+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.24098649531343486</v>
+      </c>
+      <c r="J35" s="10">
+        <f>((COS(2*PI()*B35-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99989034173742275</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.332924397428846</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="1"/>
+        <v>0.3846803586893161</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="2"/>
+        <v>-5.3721182091344508E-2</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10">
+        <f t="shared" si="3"/>
+        <v>0.25927265678161271</v>
+      </c>
+      <c r="Q35" s="10">
+        <f t="shared" si="4"/>
+        <v>0.24116918200899426</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99919077867874151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10">
+        <f>A36/$X$2-INT(A36/$X$2)</f>
+        <v>0.34</v>
+      </c>
+      <c r="D36" s="10">
+        <f>(IF(B36&lt;1/6,1,IF(B36&lt;2/6,2-B36*6,IF(B36&lt;4/6,0,IF(B36&lt;5/6,B36*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <f>(IF(B36&lt;2/6,0,IF(B36&lt;3/6,B36*6-2,IF(B36&lt;5/6,1,6-B36*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F36" s="10">
+        <f>(IF(B36&lt;1/6,B36*6,IF(B36&lt;3/6,1,IF(B36&lt;4/6,4-B36*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10">
+        <f>((COS(2*PI()*B36)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.23208660251050156</v>
+      </c>
+      <c r="I36" s="10">
+        <f>((COS(2*PI()*B36+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.26835198244006897</v>
+      </c>
+      <c r="J36" s="10">
+        <f>((COS(2*PI()*B36-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99956141504942919</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3408665091585954</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="1"/>
+        <v>0.37988566541126867</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="2"/>
+        <v>-7.9221992050585846E-2</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10">
+        <f t="shared" si="3"/>
+        <v>0.2322531580572422</v>
+      </c>
+      <c r="Q36" s="10">
+        <f t="shared" si="4"/>
+        <v>0.26852187603171807</v>
+      </c>
+      <c r="R36" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99882848165091276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10">
+        <f>A37/$X$2-INT(A37/$X$2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="D37" s="10">
+        <f>(IF(B37&lt;1/6,1,IF(B37&lt;2/6,2-B37*6,IF(B37&lt;4/6,0,IF(B37&lt;5/6,B37*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <f>(IF(B37&lt;2/6,0,IF(B37&lt;3/6,B37*6-2,IF(B37&lt;5/6,1,6-B37*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="F37" s="10">
+        <f>(IF(B37&lt;1/6,B37*6,IF(B37&lt;3/6,1,IF(B37&lt;4/6,4-B37*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
+        <f>((COS(2*PI()*B37)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.20610737385376349</v>
+      </c>
+      <c r="I37" s="10">
+        <f>((COS(2*PI()*B37+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.29663167846209959</v>
+      </c>
+      <c r="J37" s="10">
+        <f>((COS(2*PI()*B37-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99726094768413664</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34943664807551933</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="1"/>
+        <v>0.37359173696509473</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.10441014900028883</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20629033379612335</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" si="4"/>
+        <v>0.29678810845744907</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99649753649906336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10">
+        <f>A38/$X$2-INT(A38/$X$2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="D38" s="10">
+        <f>(IF(B38&lt;1/6,1,IF(B38&lt;2/6,2-B38*6,IF(B38&lt;4/6,0,IF(B38&lt;5/6,B38*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <f>(IF(B38&lt;2/6,0,IF(B38&lt;3/6,B38*6-2,IF(B38&lt;5/6,1,6-B38*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="F38" s="10">
+        <f>(IF(B38&lt;1/6,B38*6,IF(B38&lt;3/6,1,IF(B38&lt;4/6,4-B38*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10">
+        <f>((COS(2*PI()*B38)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.18128800512565513</v>
+      </c>
+      <c r="I38" s="10">
+        <f>((COS(2*PI()*B38+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.32571397633909227</v>
+      </c>
+      <c r="J38" s="10">
+        <f>((COS(2*PI()*B38-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.99299801853525249</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10">
+        <f t="shared" si="0"/>
+        <v>0.35860099175663684</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="1"/>
+        <v>0.36582341261094908</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.12918624679234769</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10">
+        <f t="shared" si="3"/>
+        <v>0.18148664740432816</v>
+      </c>
+      <c r="Q38" s="10">
+        <f t="shared" si="4"/>
+        <v>0.32585632538041664</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" si="5"/>
+        <v>0.9922071423988007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10">
+        <f>A39/$X$2-INT(A39/$X$2)</f>
+        <v>0.37</v>
+      </c>
+      <c r="D39" s="10">
+        <f>(IF(B39&lt;1/6,1,IF(B39&lt;2/6,2-B39*6,IF(B39&lt;4/6,0,IF(B39&lt;5/6,B39*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <f>(IF(B39&lt;2/6,0,IF(B39&lt;3/6,B39*6-2,IF(B39&lt;5/6,1,6-B39*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="F39" s="10">
+        <f>(IF(B39&lt;1/6,B39*6,IF(B39&lt;3/6,1,IF(B39&lt;4/6,4-B39*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10">
+        <f>((COS(2*PI()*B39)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.15772644703565564</v>
+      </c>
+      <c r="I39" s="10">
+        <f>((COS(2*PI()*B39+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.35548410152776433</v>
+      </c>
+      <c r="J39" s="10">
+        <f>((COS(2*PI()*B39-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.98678945143658003</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10">
+        <f t="shared" si="0"/>
+        <v>0.36832337272422883</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="1"/>
+        <v>0.35661135037604752</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.15345250548789924</v>
+      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10">
+        <f t="shared" si="3"/>
+        <v>0.15793998770031897</v>
+      </c>
+      <c r="Q39" s="10">
+        <f t="shared" si="4"/>
+        <v>0.35561180782843049</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="5"/>
+        <v>0.98597423157554309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10">
+        <f>A40/$X$2-INT(A40/$X$2)</f>
+        <v>0.38</v>
+      </c>
+      <c r="D40" s="10">
+        <f>(IF(B40&lt;1/6,1,IF(B40&lt;2/6,2-B40*6,IF(B40&lt;4/6,0,IF(B40&lt;5/6,B40*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <f>(IF(B40&lt;2/6,0,IF(B40&lt;3/6,B40*6-2,IF(B40&lt;5/6,1,6-B40*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="F40" s="10">
+        <f>(IF(B40&lt;1/6,B40*6,IF(B40&lt;3/6,1,IF(B40&lt;4/6,4-B40*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10">
+        <f>((COS(2*PI()*B40)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.13551568628929433</v>
+      </c>
+      <c r="I40" s="10">
+        <f>((COS(2*PI()*B40+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.3858245649446721</v>
+      </c>
+      <c r="J40" s="10">
+        <f>((COS(2*PI()*B40-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.97865974876603357</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37856542118234937</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="1"/>
+        <v>0.3459919060614407</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.17711315725007104</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10">
+        <f t="shared" si="3"/>
+        <v>0.13574328259250198</v>
+      </c>
+      <c r="Q40" s="10">
+        <f t="shared" si="4"/>
+        <v>0.38593712450625489</v>
+      </c>
+      <c r="R40" s="10">
+        <f t="shared" si="5"/>
+        <v>0.97782340248076471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10">
+        <f>A41/$X$2-INT(A41/$X$2)</f>
+        <v>0.39</v>
+      </c>
+      <c r="D41" s="10">
+        <f>(IF(B41&lt;1/6,1,IF(B41&lt;2/6,2-B41*6,IF(B41&lt;4/6,0,IF(B41&lt;5/6,B41*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <f>(IF(B41&lt;2/6,0,IF(B41&lt;3/6,B41*6-2,IF(B41&lt;5/6,1,6-B41*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="F41" s="10">
+        <f>(IF(B41&lt;1/6,B41*6,IF(B41&lt;3/6,1,IF(B41&lt;4/6,4-B41*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
+        <f>((COS(2*PI()*B41)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.11474337861210543</v>
+      </c>
+      <c r="I41" s="10">
+        <f>((COS(2*PI()*B41+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.41661562664194868</v>
+      </c>
+      <c r="J41" s="10">
+        <f>((COS(2*PI()*B41-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.96864099474594578</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10">
+        <f t="shared" si="0"/>
+        <v>0.38928671644488122</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="1"/>
+        <v>0.33400698976227555</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.20007482429588164</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10">
+        <f t="shared" si="3"/>
+        <v>0.11498413233522747</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="4"/>
+        <v>0.41671259524328197</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="5"/>
+        <v>0.96778682271314243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10">
+        <f>A42/$X$2-INT(A42/$X$2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="10">
+        <f>(IF(B42&lt;1/6,1,IF(B42&lt;2/6,2-B42*6,IF(B42&lt;4/6,0,IF(B42&lt;5/6,B42*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <f>(IF(B42&lt;2/6,0,IF(B42&lt;3/6,B42*6-2,IF(B42&lt;5/6,1,6-B42*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="F42" s="10">
+        <f>(IF(B42&lt;1/6,B42*6,IF(B42&lt;3/6,1,IF(B42&lt;4/6,4-B42*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10">
+        <f>((COS(2*PI()*B42)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>9.549150281252633E-2</v>
+      </c>
+      <c r="I42" s="10">
+        <f>((COS(2*PI()*B42+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.4477357683661729</v>
+      </c>
+      <c r="J42" s="10">
+        <f>((COS(2*PI()*B42-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.95677272882130038</v>
+      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10">
+        <f t="shared" si="0"/>
+        <v>0.4004449464575171</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="1"/>
+        <v>0.32070390046779734</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.22224688741568899</v>
+      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10">
+        <f t="shared" si="3"/>
+        <v>9.5744463810607527E-2</v>
+      </c>
+      <c r="Q42" s="10">
+        <f t="shared" si="4"/>
+        <v>0.44781676331648812</v>
+      </c>
+      <c r="R42" s="10">
+        <f t="shared" si="5"/>
+        <v>0.95590410206774212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10">
+        <f>A43/$X$2-INT(A43/$X$2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="D43" s="10">
+        <f>(IF(B43&lt;1/6,1,IF(B43&lt;2/6,2-B43*6,IF(B43&lt;4/6,0,IF(B43&lt;5/6,B43*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <f>(IF(B43&lt;2/6,0,IF(B43&lt;3/6,B43*6-2,IF(B43&lt;5/6,1,6-B43*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="F43" s="10">
+        <f>(IF(B43&lt;1/6,B43*6,IF(B43&lt;3/6,1,IF(B43&lt;4/6,4-B43*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10">
+        <f>((COS(2*PI()*B43)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>7.7836037248992573E-2</v>
+      </c>
+      <c r="I43" s="10">
+        <f>((COS(2*PI()*B43+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.47906217313539962</v>
+      </c>
+      <c r="J43" s="10">
+        <f>((COS(2*PI()*B43-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.94310178961560742</v>
+      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10">
+        <f t="shared" si="0"/>
+        <v>0.4119960747841076</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="1"/>
+        <v>0.30613513939384818</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.24354184360581127</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10">
+        <f t="shared" si="3"/>
+        <v>7.8100207200540339E-2</v>
+      </c>
+      <c r="Q43" s="10">
+        <f t="shared" si="4"/>
+        <v>0.4791268747846309</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" si="5"/>
+        <v>0.94222213621425266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10">
+        <f>A44/$X$2-INT(A44/$X$2)</f>
+        <v>0.42</v>
+      </c>
+      <c r="D44" s="10">
+        <f>(IF(B44&lt;1/6,1,IF(B44&lt;2/6,2-B44*6,IF(B44&lt;4/6,0,IF(B44&lt;5/6,B44*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <f>(IF(B44&lt;2/6,0,IF(B44&lt;3/6,B44*6-2,IF(B44&lt;5/6,1,6-B44*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.52</v>
+      </c>
+      <c r="F44" s="10">
+        <f>(IF(B44&lt;1/6,B44*6,IF(B44&lt;3/6,1,IF(B44&lt;4/6,4-B44*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10">
+        <f>((COS(2*PI()*B44)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>6.1846659978068319E-2</v>
+      </c>
+      <c r="I44" s="10">
+        <f>((COS(2*PI()*B44+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.51047120994167816</v>
+      </c>
+      <c r="J44" s="10">
+        <f>((COS(2*PI()*B44-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.92768213008025335</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10">
+        <f t="shared" si="0"/>
+        <v>0.4238945143983564</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29035820278455282</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.26387565140290636</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10">
+        <f t="shared" si="3"/>
+        <v>6.2120996324971756E-2</v>
+      </c>
+      <c r="Q44" s="10">
+        <f t="shared" si="4"/>
+        <v>0.51051936294197531</v>
+      </c>
+      <c r="R44" s="10">
+        <f t="shared" si="5"/>
+        <v>0.92679492162120192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10">
+        <f>A45/$X$2-INT(A45/$X$2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="D45" s="10">
+        <f>(IF(B45&lt;1/6,1,IF(B45&lt;2/6,2-B45*6,IF(B45&lt;4/6,0,IF(B45&lt;5/6,B45*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <f>(IF(B45&lt;2/6,0,IF(B45&lt;3/6,B45*6-2,IF(B45&lt;5/6,1,6-B45*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="F45" s="10">
+        <f>(IF(B45&lt;1/6,B45*6,IF(B45&lt;3/6,1,IF(B45&lt;4/6,4-B45*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10">
+        <f>((COS(2*PI()*B45)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>4.7586473766990323E-2</v>
+      </c>
+      <c r="I45" s="10">
+        <f>((COS(2*PI()*B45+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.54183892166615766</v>
+      </c>
+      <c r="J45" s="10">
+        <f>((COS(2*PI()*B45-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.91057460456685202</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10">
+        <f t="shared" si="0"/>
+        <v>0.43609330759498577</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="1"/>
+        <v>0.27343535500091165</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.28316806255723215</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10">
+        <f t="shared" si="3"/>
+        <v>4.7869893829020516E-2</v>
+      </c>
+      <c r="Q45" s="10">
+        <f t="shared" si="4"/>
+        <v>0.54187033597962753</v>
+      </c>
+      <c r="R45" s="10">
+        <f t="shared" si="5"/>
+        <v>0.90968334245656468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10">
+        <f>A46/$X$2-INT(A46/$X$2)</f>
+        <v>0.44</v>
+      </c>
+      <c r="D46" s="10">
+        <f>(IF(B46&lt;1/6,1,IF(B46&lt;2/6,2-B46*6,IF(B46&lt;4/6,0,IF(B46&lt;5/6,B46*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <f>(IF(B46&lt;2/6,0,IF(B46&lt;3/6,B46*6-2,IF(B46&lt;5/6,1,6-B46*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="F46" s="10">
+        <f>(IF(B46&lt;1/6,B46*6,IF(B46&lt;3/6,1,IF(B46&lt;4/6,4-B46*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10">
+        <f>((COS(2*PI()*B46)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>3.5111757055874326E-2</v>
+      </c>
+      <c r="I46" s="10">
+        <f>((COS(2*PI()*B46+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.57304151428120564</v>
+      </c>
+      <c r="J46" s="10">
+        <f>((COS(2*PI()*B46-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.89184672866291992</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10">
+        <f t="shared" si="0"/>
+        <v>0.448544311310347</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="1"/>
+        <v>0.25543338279181299</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.30134293873582657</v>
+      </c>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10">
+        <f t="shared" si="3"/>
+        <v>3.5403142303528756E-2</v>
+      </c>
+      <c r="Q46" s="10">
+        <f t="shared" si="4"/>
+        <v>0.57305606592990477</v>
+      </c>
+      <c r="R46" s="10">
+        <f t="shared" si="5"/>
+        <v>0.89095493030576711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10">
+        <f>A47/$X$2-INT(A47/$X$2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="D47" s="10">
+        <f>(IF(B47&lt;1/6,1,IF(B47&lt;2/6,2-B47*6,IF(B47&lt;4/6,0,IF(B47&lt;5/6,B47*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <f>(IF(B47&lt;2/6,0,IF(B47&lt;3/6,B47*6-2,IF(B47&lt;5/6,1,6-B47*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F47" s="10">
+        <f>(IF(B47&lt;1/6,B47*6,IF(B47&lt;3/6,1,IF(B47&lt;4/6,4-B47*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10">
+        <f>((COS(2*PI()*B47)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>2.4471741852423234E-2</v>
+      </c>
+      <c r="I47" s="10">
+        <f>((COS(2*PI()*B47+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.60395584540887925</v>
+      </c>
+      <c r="J47" s="10">
+        <f>((COS(2*PI()*B47-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.87157241273869701</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10">
+        <f t="shared" si="0"/>
+        <v>0.46119838712109817</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="1"/>
+        <v>0.23642333171724733</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.31832855200572385</v>
+      </c>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10">
+        <f t="shared" si="3"/>
+        <v>2.4769942321250793E-2</v>
+      </c>
+      <c r="Q47" s="10">
+        <f t="shared" si="4"/>
+        <v>0.60395347696409829</v>
+      </c>
+      <c r="R47" s="10">
+        <f t="shared" si="5"/>
+        <v>0.87068359765537062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10">
+        <f>A48/$X$2-INT(A48/$X$2)</f>
+        <v>0.46</v>
+      </c>
+      <c r="D48" s="10">
+        <f>(IF(B48&lt;1/6,1,IF(B48&lt;2/6,2-B48*6,IF(B48&lt;4/6,0,IF(B48&lt;5/6,B48*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <f>(IF(B48&lt;2/6,0,IF(B48&lt;3/6,B48*6-2,IF(B48&lt;5/6,1,6-B48*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.76000000000000023</v>
+      </c>
+      <c r="F48" s="10">
+        <f>(IF(B48&lt;1/6,B48*6,IF(B48&lt;3/6,1,IF(B48&lt;4/6,4-B48*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10">
+        <f>((COS(2*PI()*B48)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>1.5708419435684462E-2</v>
+      </c>
+      <c r="I48" s="10">
+        <f>((COS(2*PI()*B48+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.63445991030763271</v>
+      </c>
+      <c r="J48" s="10">
+        <f>((COS(2*PI()*B48-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.8498316702566826</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10">
+        <f t="shared" si="0"/>
+        <v>0.47400559517111185</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="1"/>
+        <v>0.21648022576393958</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.33405786791133668</v>
+      </c>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10">
+        <f t="shared" si="3"/>
+        <v>1.6012258264669232E-2</v>
+      </c>
+      <c r="Q48" s="10">
+        <f t="shared" si="4"/>
+        <v>0.63444063111654114</v>
+      </c>
+      <c r="R48" s="10">
+        <f t="shared" si="5"/>
+        <v>0.84894934619425522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="10">
+        <f>A49/$X$2-INT(A49/$X$2)</f>
+        <v>0.47</v>
+      </c>
+      <c r="D49" s="10">
+        <f>(IF(B49&lt;1/6,1,IF(B49&lt;2/6,2-B49*6,IF(B49&lt;4/6,0,IF(B49&lt;5/6,B49*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <f>(IF(B49&lt;2/6,0,IF(B49&lt;3/6,B49*6-2,IF(B49&lt;5/6,1,6-B49*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.81999999999999984</v>
+      </c>
+      <c r="F49" s="10">
+        <f>(IF(B49&lt;1/6,B49*6,IF(B49&lt;3/6,1,IF(B49&lt;4/6,4-B49*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10">
+        <f>((COS(2*PI()*B49)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>8.8563746356556949E-3</v>
+      </c>
+      <c r="I49" s="10">
+        <f>((COS(2*PI()*B49+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.6644333233692914</v>
+      </c>
+      <c r="J49" s="10">
+        <f>((COS(2*PI()*B49-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.8267103019950528</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10">
+        <f t="shared" si="0"/>
+        <v>0.48691539126127109</v>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1956827712599494</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.34846881002882601</v>
+      </c>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10">
+        <f t="shared" si="3"/>
+        <v>9.1646527117505983E-3</v>
+      </c>
+      <c r="Q49" s="10">
+        <f t="shared" si="4"/>
+        <v>0.66439720951804859</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" si="5"/>
+        <v>0.82583795108350344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10">
+        <f>A50/$X$2-INT(A50/$X$2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" ref="D50:D101" si="6">(IF(B50&lt;1/6,1,IF(B50&lt;2/6,2-B50*6,IF(B50&lt;4/6,0,IF(B50&lt;5/6,B50*6-4,1))))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" ref="E50:E101" si="7">(IF(B50&lt;2/6,0,IF(B50&lt;3/6,B50*6-2,IF(B50&lt;5/6,1,6-B50*6)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" ref="F50:F101" si="8">(IF(B50&lt;1/6,B50*6,IF(B50&lt;3/6,1,IF(B50&lt;4/6,4-B50*6,0)))*$U$2+(1-$U$2))*$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
+        <f t="shared" ref="H50:H101" si="9">((COS(2*PI()*B50)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>3.9426493427611176E-3</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" ref="I50:I101" si="10">((COS(2*PI()*B50+2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.69375779322605147</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" ref="J50:J101" si="11">((COS(2*PI()*B50-2*PI()/3)*0.5+0.5)*$U$2+(1-$U$2))*$V$2</f>
+        <v>0.80229955743118753</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10">
+        <f t="shared" ref="L50:L101" si="12">H50*$U$5+I50*$U$6+J50*$U$7</f>
+        <v>0.49987682632433311</v>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" si="1"/>
+        <v>0.17411304625675048</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.36150450495338771</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10">
+        <f t="shared" ref="P50:P101" si="13">L50*$U$9+M50*$V$9+N50*$W$9</f>
+        <v>4.2541500332385906E-3</v>
+      </c>
+      <c r="Q50" s="10">
+        <f t="shared" si="4"/>
+        <v>0.69370498723952956</v>
+      </c>
+      <c r="R50" s="10">
+        <f t="shared" si="5"/>
+        <v>0.80144062244102487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="10">
+        <f>A51/$X$2-INT(A51/$X$2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="7"/>
+        <v>0.94</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10">
+        <f t="shared" si="9"/>
+        <v>9.8663578586422052E-4</v>
+      </c>
+      <c r="I51" s="10">
+        <f t="shared" si="10"/>
+        <v>0.7223175895924635</v>
+      </c>
+      <c r="J51" s="10">
+        <f t="shared" si="11"/>
+        <v>0.77669577462167205</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10">
+        <f t="shared" si="12"/>
+        <v>0.51283874749762015</v>
+      </c>
+      <c r="M51" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15185617660466066</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.37311350675259652</v>
+      </c>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10">
+        <f t="shared" si="13"/>
+        <v>1.3001297398103073E-3</v>
+      </c>
+      <c r="Q51" s="10">
+        <f t="shared" si="4"/>
+        <v>0.72224829987176653</v>
+      </c>
+      <c r="R51" s="10">
+        <f t="shared" si="5"/>
+        <v>0.7758536453768925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10">
+        <f>A52/$X$2-INT(A52/$X$2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <f t="shared" si="10"/>
+        <v>0.74999999999999967</v>
+      </c>
+      <c r="J52" s="10">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10">
+        <f t="shared" si="12"/>
+        <v>0.52574999999999972</v>
+      </c>
+      <c r="M52" s="10">
+        <f t="shared" si="1"/>
+        <v>0.12900000000000006</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.38324999999999987</v>
+      </c>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10">
+        <f t="shared" si="13"/>
+        <v>3.1424999999984937E-4</v>
+      </c>
+      <c r="Q52" s="10">
+        <f t="shared" si="4"/>
+        <v>0.7499144999999996</v>
+      </c>
+      <c r="R52" s="10">
+        <f t="shared" si="5"/>
+        <v>0.74917799999999979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="10">
+        <f>A53/$X$2-INT(A53/$X$2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="D53" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" si="8"/>
+        <v>0.94</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10">
+        <f t="shared" si="9"/>
+        <v>9.8663578586422052E-4</v>
+      </c>
+      <c r="I53" s="10">
+        <f t="shared" si="10"/>
+        <v>0.77669577462167194</v>
+      </c>
+      <c r="J53" s="10">
+        <f t="shared" si="11"/>
+        <v>0.72231758959246362</v>
+      </c>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10">
+        <f t="shared" si="12"/>
+        <v>0.53855962901643561</v>
+      </c>
+      <c r="M53" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10563471932983348</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.39187398058767348</v>
+      </c>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10">
+        <f t="shared" si="13"/>
+        <v>1.3004016307353039E-3</v>
+      </c>
+      <c r="Q53" s="10">
+        <f t="shared" si="4"/>
+        <v>0.77659440177180761</v>
+      </c>
+      <c r="R53" s="10">
+        <f t="shared" si="5"/>
+        <v>0.72151896289570727</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="10">
+        <f>A54/$X$2-INT(A54/$X$2)</f>
+        <v>0.52</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="8"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10">
+        <f t="shared" si="9"/>
+        <v>3.942649342761062E-3</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="10"/>
+        <v>0.80229955743118753</v>
+      </c>
+      <c r="J54" s="10">
+        <f t="shared" si="11"/>
+        <v>0.69375779322605136</v>
+      </c>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10">
+        <f t="shared" si="12"/>
+        <v>0.55121708079336251</v>
+      </c>
+      <c r="M54" s="10">
+        <f t="shared" si="1"/>
+        <v>8.185254668238473E-2</v>
+      </c>
+      <c r="N54" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.39895141360415959</v>
+      </c>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10">
+        <f t="shared" si="13"/>
+        <v>4.2546927420596958E-3</v>
+      </c>
+      <c r="Q54" s="10">
+        <f t="shared" si="4"/>
+        <v>0.80218271180378453</v>
+      </c>
+      <c r="R54" s="10">
+        <f t="shared" si="5"/>
+        <v>0.69298569164725288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10">
+        <f>A55/$X$2-INT(A55/$X$2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="8"/>
+        <v>0.81999999999999984</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10">
+        <f t="shared" si="9"/>
+        <v>8.8563746356556949E-3</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="10"/>
+        <v>0.82671030199505269</v>
+      </c>
+      <c r="J55" s="10">
+        <f t="shared" si="11"/>
+        <v>0.6644333233692914</v>
+      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10">
+        <f t="shared" si="12"/>
+        <v>0.56367240215125614</v>
+      </c>
+      <c r="M55" s="10">
+        <f t="shared" si="1"/>
+        <v>5.7747339428052213E-2</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.40445436765471365</v>
+      </c>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10">
+        <f t="shared" si="13"/>
+        <v>9.1654640966437606E-3</v>
+      </c>
+      <c r="Q55" s="10">
+        <f t="shared" si="4"/>
+        <v>0.82657844472642061</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" si="5"/>
+        <v>0.66369079404064257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="10">
+        <f>A56/$X$2-INT(A56/$X$2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="D56" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="8"/>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10">
+        <f t="shared" si="9"/>
+        <v>1.5708419435684462E-2</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="10"/>
+        <v>0.8498316702566826</v>
+      </c>
+      <c r="J56" s="10">
+        <f t="shared" si="11"/>
+        <v>0.6344599103076326</v>
+      </c>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10">
+        <f t="shared" si="12"/>
+        <v>0.57587643762701246</v>
+      </c>
+      <c r="M56" s="10">
+        <f t="shared" si="1"/>
+        <v>3.341422980724712E-2</v>
+      </c>
+      <c r="N56" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.40836112509375888</v>
+      </c>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10">
+        <f t="shared" si="13"/>
+        <v>1.601333512346903E-2</v>
+      </c>
+      <c r="Q56" s="10">
+        <f t="shared" si="4"/>
+        <v>0.84968532172722111</v>
+      </c>
+      <c r="R56" s="10">
+        <f t="shared" si="5"/>
+        <v>0.63374988365316443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="10">
+        <f>A57/$X$2-INT(A57/$X$2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="8"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10">
+        <f t="shared" si="9"/>
+        <v>2.4471741852423234E-2</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="10"/>
+        <v>0.87157241273869712</v>
+      </c>
+      <c r="J57" s="10">
+        <f t="shared" si="11"/>
+        <v>0.60395584540887937</v>
+      </c>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10">
+        <f t="shared" si="12"/>
+        <v>0.58778102346810202</v>
+      </c>
+      <c r="M57" s="10">
+        <f t="shared" si="1"/>
+        <v>8.9492494869022332E-3</v>
+      </c>
+      <c r="N57" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.41065626773451114</v>
+      </c>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10">
+        <f t="shared" si="13"/>
+        <v>2.477128040408727E-2</v>
+      </c>
+      <c r="Q57" s="10">
+        <f t="shared" si="4"/>
+        <v>0.87141215051919163</v>
+      </c>
+      <c r="R57" s="10">
+        <f t="shared" si="5"/>
+        <v>0.60328112357941666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="10">
+        <f>A58/$X$2-INT(A58/$X$2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="8"/>
+        <v>0.63999999999999968</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10">
+        <f t="shared" si="9"/>
+        <v>3.5111757055874382E-2</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" si="10"/>
+        <v>0.89184672866292014</v>
+      </c>
+      <c r="J58" s="10">
+        <f t="shared" si="11"/>
+        <v>0.57304151428120553</v>
+      </c>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10">
+        <f t="shared" si="12"/>
+        <v>0.59933917771289791</v>
+      </c>
+      <c r="M58" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.5551049432644348E-2</v>
+      </c>
+      <c r="N58" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.41133073769751805</v>
+      </c>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10">
+        <f t="shared" si="13"/>
+        <v>3.5404736329600617E-2</v>
+      </c>
+      <c r="Q58" s="10">
+        <f t="shared" si="4"/>
+        <v>0.89167318523513406</v>
+      </c>
+      <c r="R58" s="10">
+        <f t="shared" si="5"/>
+        <v>0.57240476009555785</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="10">
+        <f>A59/$X$2-INT(A59/$X$2)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="8"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10">
+        <f t="shared" si="9"/>
+        <v>4.7586473766990156E-2</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" si="10"/>
+        <v>0.91057460456685191</v>
+      </c>
+      <c r="J59" s="10">
+        <f t="shared" si="11"/>
+        <v>0.54183892166615788</v>
+      </c>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10">
+        <f t="shared" si="12"/>
+        <v>0.61050528560701411</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="1"/>
+        <v>-3.9989975464678418E-2</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.4103818731579717</v>
+      </c>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10">
+        <f t="shared" si="13"/>
+        <v>4.7871737507434897E-2</v>
+      </c>
+      <c r="Q59" s="10">
+        <f t="shared" si="4"/>
+        <v>0.91038846482741032</v>
+      </c>
+      <c r="R59" s="10">
+        <f t="shared" si="5"/>
+        <v>0.54124264810219114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="10">
+        <f>A60/$X$2-INT(A60/$X$2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="8"/>
+        <v>0.52000000000000046</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10">
+        <f t="shared" si="9"/>
+        <v>6.1846659978068153E-2</v>
+      </c>
+      <c r="I60" s="10">
+        <f t="shared" si="10"/>
+        <v>0.92768213008025335</v>
+      </c>
+      <c r="J60" s="10">
+        <f t="shared" si="11"/>
+        <v>0.51047120994167849</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10">
+        <f t="shared" si="12"/>
+        <v>0.62123527962390246</v>
+      </c>
+      <c r="M60" s="10">
+        <f t="shared" si="1"/>
+        <v>-6.4271079333235948E-2</v>
+      </c>
+      <c r="N60" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.40781341885071493</v>
+      </c>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10">
+        <f t="shared" si="13"/>
+        <v>6.2123082379572314E-2</v>
+      </c>
+      <c r="Q60" s="10">
+        <f t="shared" si="4"/>
+        <v>0.92748412863766871</v>
+      </c>
+      <c r="R60" s="10">
+        <f t="shared" si="5"/>
+        <v>0.50991777021873785</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="10">
+        <f>A61/$X$2-INT(A61/$X$2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="10">
+        <f t="shared" si="8"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10">
+        <f t="shared" si="9"/>
+        <v>7.7836037248992407E-2</v>
+      </c>
+      <c r="I61" s="10">
+        <f t="shared" si="10"/>
+        <v>0.94310178961560731</v>
+      </c>
+      <c r="J61" s="10">
+        <f t="shared" si="11"/>
+        <v>0.47906217313540017</v>
+      </c>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10">
+        <f t="shared" si="12"/>
+        <v>0.63148681337924584</v>
+      </c>
+      <c r="M61" s="10">
+        <f t="shared" si="1"/>
+        <v>-8.82985346143281E-2</v>
+      </c>
+      <c r="N61" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.40363551129148301</v>
+      </c>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10">
+        <f t="shared" si="13"/>
+        <v>7.8102527398622668E-2</v>
+      </c>
+      <c r="Q61" s="10">
+        <f t="shared" si="4"/>
+        <v>0.94289270789111523</v>
+      </c>
+      <c r="R61" s="10">
+        <f t="shared" si="5"/>
+        <v>0.47855375142722956</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="10">
+        <f>A62/$X$2-INT(A62/$X$2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="10">
+        <f t="shared" si="8"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10">
+        <f t="shared" si="9"/>
+        <v>9.5491502812526219E-2</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="10"/>
+        <v>0.95677272882130027</v>
+      </c>
+      <c r="J62" s="10">
+        <f t="shared" si="11"/>
+        <v>0.44773576836617324</v>
+      </c>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10">
+        <f t="shared" si="12"/>
+        <v>0.64121942875279236</v>
+      </c>
+      <c r="M62" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.1119775159190608</v>
+      </c>
+      <c r="N62" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.397864638772708</v>
+      </c>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10">
+        <f t="shared" si="13"/>
+        <v>9.5747008995409666E-2</v>
+      </c>
+      <c r="Q62" s="10">
+        <f t="shared" si="4"/>
+        <v>0.95655339196494693</v>
+      </c>
+      <c r="R62" s="10">
+        <f t="shared" si="5"/>
+        <v>0.44727437118097907</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="10">
+        <f>A63/$X$2-INT(A63/$X$2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10">
+        <f t="shared" si="9"/>
+        <v>0.11474337861210537</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="10"/>
+        <v>0.96864099474594578</v>
+      </c>
+      <c r="J63" s="10">
+        <f t="shared" si="11"/>
+        <v>0.41661562664194879</v>
+      </c>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10">
+        <f t="shared" si="12"/>
+        <v>0.65039471555807182</v>
+      </c>
+      <c r="M63" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.13521457312612192</v>
+      </c>
+      <c r="N63" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.39052357629176071</v>
+      </c>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10">
+        <f t="shared" si="13"/>
+        <v>0.11498689246206784</v>
+      </c>
+      <c r="Q63" s="10">
+        <f t="shared" si="4"/>
+        <v>0.96841226838009775</v>
+      </c>
+      <c r="R63" s="10">
+        <f t="shared" si="5"/>
+        <v>0.41620307490362862</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="10">
+        <f>A64/$X$2-INT(A64/$X$2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="10">
+        <f t="shared" si="8"/>
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10">
+        <f t="shared" si="9"/>
+        <v>0.13551568628929422</v>
+      </c>
+      <c r="I64" s="10">
+        <f t="shared" si="10"/>
+        <v>0.97865974876603368</v>
+      </c>
+      <c r="J64" s="10">
+        <f t="shared" si="11"/>
+        <v>0.38582456494467199</v>
+      </c>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10">
+        <f t="shared" si="12"/>
+        <v>0.65897646312985336</v>
+      </c>
+      <c r="M64" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.1579180001867167</v>
+      </c>
+      <c r="N64" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.38164129566844085</v>
+      </c>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10">
+        <f t="shared" si="13"/>
+        <v>0.13574624676842095</v>
+      </c>
+      <c r="Q64" s="10">
+        <f t="shared" si="4"/>
+        <v>0.97842253556916181</v>
+      </c>
+      <c r="R64" s="10">
+        <f t="shared" si="5"/>
+        <v>0.38546248680646006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="10">
+        <f>A65/$X$2-INT(A65/$X$2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="10">
+        <f t="shared" si="8"/>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10">
+        <f t="shared" si="9"/>
+        <v>0.15772644703565553</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="10"/>
+        <v>0.98678945143658015</v>
+      </c>
+      <c r="J65" s="10">
+        <f t="shared" si="11"/>
+        <v>0.35548410152776422</v>
+      </c>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10">
+        <f t="shared" si="12"/>
+        <v>0.66693080323109866</v>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.1799981970464459</v>
+      </c>
+      <c r="N65" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.37125285120644075</v>
+      </c>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10">
+        <f t="shared" si="13"/>
+        <v>0.15794314422706834</v>
+      </c>
+      <c r="Q65" s="10">
+        <f t="shared" si="4"/>
+        <v>0.98654468758080016</v>
+      </c>
+      <c r="R65" s="10">
+        <f t="shared" si="5"/>
+        <v>0.35517392594665437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="10">
+        <f>A66/$X$2-INT(A66/$X$2)</f>
+        <v>0.64</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" si="8"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10">
+        <f t="shared" si="9"/>
+        <v>0.18128800512565524</v>
+      </c>
+      <c r="I66" s="10">
+        <f t="shared" si="10"/>
+        <v>0.99299801853525249</v>
+      </c>
+      <c r="J66" s="10">
+        <f t="shared" si="11"/>
+        <v>0.32571397633909216</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10">
+        <f t="shared" si="12"/>
+        <v>0.67422634371542056</v>
+      </c>
+      <c r="M66" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.2013680232557872</v>
+      </c>
+      <c r="N66" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.35939924135002294</v>
+      </c>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10">
+        <f t="shared" si="13"/>
+        <v>0.18148998382453913</v>
+      </c>
+      <c r="Q66" s="10">
+        <f t="shared" si="4"/>
+        <v>0.99274666999168104</v>
+      </c>
+      <c r="R66" s="10">
+        <f t="shared" si="5"/>
+        <v>0.32545692743639715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="10">
+        <f>A67/$X$2-INT(A67/$X$2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10">
+        <f t="shared" si="9"/>
+        <v>0.20610737385376338</v>
+      </c>
+      <c r="I67" s="10">
+        <f t="shared" si="10"/>
+        <v>0.99726094768413664</v>
+      </c>
+      <c r="J67" s="10">
+        <f t="shared" si="11"/>
+        <v>0.29663167846209987</v>
+      </c>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10">
+        <f t="shared" si="12"/>
+        <v>0.68083429241754279</v>
+      </c>
+      <c r="M67" s="10">
+        <f t="shared" ref="M67:M101" si="14">H67*$V$5+I67*$V$6+J67*$V$7</f>
+        <v>-0.22194314187363659</v>
+      </c>
+      <c r="N67" s="10">
+        <f t="shared" ref="N67:N101" si="15">H67*$W$5+I67*$W$6+J67*$W$7</f>
+        <v>-0.34612724688189167</v>
+      </c>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10">
+        <f t="shared" si="13"/>
+        <v>0.20629383694246933</v>
+      </c>
+      <c r="Q67" s="10">
+        <f t="shared" ref="Q67:Q101" si="16">L67*$U$10+M67*$V$10+N67*$W$10</f>
+        <v>0.99700400641064513</v>
+      </c>
+      <c r="R67" s="10">
+        <f t="shared" ref="R67:R101" si="17">L67*$U$11+M67*$V$11+N67*$W$11</f>
+        <v>0.2964287706924042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="10">
+        <f>A68/$X$2-INT(A68/$X$2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10">
+        <f t="shared" si="9"/>
+        <v>0.23208660251050184</v>
+      </c>
+      <c r="I68" s="10">
+        <f t="shared" si="10"/>
+        <v>0.99956141504942919</v>
+      </c>
+      <c r="J68" s="10">
+        <f t="shared" si="11"/>
+        <v>0.26835198244006886</v>
+      </c>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10">
+        <f t="shared" si="12"/>
+        <v>0.68672857078282279</v>
+      </c>
+      <c r="M68" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.24164235230668762</v>
+      </c>
+      <c r="N68" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.331489246300815</v>
+      </c>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10">
+        <f t="shared" si="13"/>
+        <v>0.23225681410440541</v>
+      </c>
+      <c r="Q68" s="10">
+        <f t="shared" si="16"/>
+        <v>0.99929989507583872</v>
+      </c>
+      <c r="R68" s="10">
+        <f t="shared" si="17"/>
+        <v>0.26820401658763982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="10">
+        <f>A69/$X$2-INT(A69/$X$2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="E69" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10">
+        <f t="shared" si="9"/>
+        <v>0.25912316294914239</v>
+      </c>
+      <c r="I69" s="10">
+        <f t="shared" si="10"/>
+        <v>0.99989034173742275</v>
+      </c>
+      <c r="J69" s="10">
+        <f t="shared" si="11"/>
+        <v>0.2409864953134348</v>
+      </c>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10">
+        <f t="shared" si="12"/>
+        <v>0.6918859167873922</v>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.26038791077107359</v>
+      </c>
+      <c r="N69" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.31554300910762029</v>
+      </c>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10">
+        <f t="shared" si="13"/>
+        <v>0.25927645130084476</v>
+      </c>
+      <c r="Q69" s="10">
+        <f t="shared" si="16"/>
+        <v>0.99962527516359179</v>
+      </c>
+      <c r="R69" s="10">
+        <f t="shared" si="17"/>
+        <v>0.24089405533189273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="10">
+        <f>A70/$X$2-INT(A70/$X$2)</f>
+        <v>0.68</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="6"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="E70" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10">
+        <f t="shared" si="9"/>
+        <v>0.28711035421746389</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="10"/>
+        <v>0.99824642962475219</v>
+      </c>
+      <c r="J70" s="10">
+        <f t="shared" si="11"/>
+        <v>0.21464321615778381</v>
+      </c>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10">
+        <f t="shared" si="12"/>
+        <v>0.69628597674273851</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.27810583711156728</v>
+      </c>
+      <c r="N70" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.29835146781536598</v>
+      </c>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10">
+        <f t="shared" si="13"/>
+        <v>0.28724611436787173</v>
+      </c>
+      <c r="Q70" s="10">
+        <f t="shared" si="16"/>
+        <v>0.99797886254735058</v>
+      </c>
+      <c r="R70" s="10">
+        <f t="shared" si="17"/>
+        <v>0.214606666865504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="10">
+        <f>A71/$X$2-INT(A71/$X$2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="6"/>
+        <v>0.13999999999999968</v>
+      </c>
+      <c r="E71" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10">
+        <f t="shared" si="9"/>
+        <v>0.31593772365766071</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="10"/>
+        <v>0.99463616648149422</v>
+      </c>
+      <c r="J71" s="10">
+        <f t="shared" si="11"/>
+        <v>0.18942610986084502</v>
+      </c>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10">
+        <f t="shared" si="12"/>
+        <v>0.69991138562241395</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.29472620676745243</v>
+      </c>
+      <c r="N71" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.27998246958346501</v>
+      </c>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10">
+        <f t="shared" si="13"/>
+        <v>0.3160554198234834</v>
+      </c>
+      <c r="Q71" s="10">
+        <f t="shared" si="16"/>
+        <v>0.99436715486553662</v>
+      </c>
+      <c r="R71" s="10">
+        <f t="shared" si="17"/>
+        <v>0.18944559550118634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="10">
+        <f>A72/$X$2-INT(A72/$X$2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="E72" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F72" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10">
+        <f t="shared" si="9"/>
+        <v>0.34549150281252622</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" si="10"/>
+        <v>0.98907380036690284</v>
+      </c>
+      <c r="J72" s="10">
+        <f t="shared" si="11"/>
+        <v>0.16543469682057088</v>
+      </c>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10">
+        <f t="shared" si="12"/>
+        <v>0.70274783559386234</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.3101834267328229</v>
+      </c>
+      <c r="N72" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.26050850845594087</v>
+      </c>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10">
+        <f t="shared" si="13"/>
+        <v>0.34559067050076742</v>
+      </c>
+      <c r="Q72" s="10">
+        <f t="shared" si="16"/>
+        <v>0.98880440587833762</v>
+      </c>
+      <c r="R72" s="10">
+        <f t="shared" si="17"/>
+        <v>0.16551014049261303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="10">
+        <f>A73/$X$2-INT(A73/$X$2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" si="6"/>
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10">
+        <f t="shared" si="9"/>
+        <v>0.37565505641757235</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="10"/>
+        <v>0.98158128339882922</v>
+      </c>
+      <c r="J73" s="10">
+        <f t="shared" si="11"/>
+        <v>0.14276366018359843</v>
+      </c>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10">
+        <f t="shared" si="12"/>
+        <v>0.70478413248489713</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.32441649442220677</v>
+      </c>
+      <c r="N73" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.24000643926055812</v>
+      </c>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10">
+        <f t="shared" si="13"/>
+        <v>0.37573530425867196</v>
+      </c>
+      <c r="Q73" s="10">
+        <f t="shared" si="16"/>
+        <v>0.98131256921462817</v>
+      </c>
+      <c r="R73" s="10">
+        <f t="shared" si="17"/>
+        <v>0.14289476414563496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="10">
+        <f>A74/$X$2-INT(A74/$X$2)</f>
+        <v>0.72</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" si="6"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10">
+        <f t="shared" si="9"/>
+        <v>0.4063093427071377</v>
+      </c>
+      <c r="I74" s="10">
+        <f t="shared" si="10"/>
+        <v>0.9721881851187405</v>
+      </c>
+      <c r="J74" s="10">
+        <f t="shared" si="11"/>
+        <v>0.12150247217412169</v>
+      </c>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10">
+        <f t="shared" si="12"/>
+        <v>0.7060122399619847</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.33736923841990452</v>
+      </c>
+      <c r="N74" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.21855717429792562</v>
+      </c>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10">
+        <f t="shared" si="13"/>
+        <v>0.4063703539995287</v>
+      </c>
+      <c r="Q74" s="10">
+        <f t="shared" si="16"/>
+        <v>0.97192121173102475</v>
+      </c>
+      <c r="R74" s="10">
+        <f t="shared" si="17"/>
+        <v>0.12168871901871003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="10">
+        <f>A75/$X$2-INT(A75/$X$2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="D75" s="10">
+        <f t="shared" si="6"/>
+        <v>0.37999999999999989</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10">
+        <f t="shared" si="9"/>
+        <v>0.4373333832178477</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" si="10"/>
+        <v>0.96093157579425026</v>
+      </c>
+      <c r="J75" s="10">
+        <f t="shared" si="11"/>
+        <v>0.10173504098790187</v>
+      </c>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10">
+        <f t="shared" si="12"/>
+        <v>0.70642731124598213</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.34899054016290282</v>
+      </c>
+      <c r="N75" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.1962453640176148</v>
+      </c>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10">
+        <f t="shared" si="13"/>
+        <v>0.43737491717783222</v>
+      </c>
+      <c r="Q75" s="10">
+        <f t="shared" si="16"/>
+        <v>0.96066739682501257</v>
+      </c>
+      <c r="R75" s="10">
+        <f t="shared" si="17"/>
+        <v>0.10197569568383447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="10">
+        <f>A76/$X$2-INT(A76/$X$2)</f>
+        <v>0.74</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4399999999999995</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10">
+        <f t="shared" si="9"/>
+        <v>0.46860474023534338</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="10"/>
+        <v>0.94785588011970656</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" si="11"/>
+        <v>8.3539379644950174E-2</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10">
+        <f t="shared" si="12"/>
+        <v>0.70602770824015959</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.35923453568249009</v>
+      </c>
+      <c r="N76" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.17315906294150479</v>
+      </c>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10">
+        <f t="shared" si="13"/>
+        <v>0.46862663294735651</v>
+      </c>
+      <c r="Q76" s="10">
+        <f t="shared" si="16"/>
+        <v>0.94759553816264663</v>
+      </c>
+      <c r="R76" s="10">
+        <f t="shared" si="17"/>
+        <v>8.3833492438086799E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="10">
+        <f>A77/$X$2-INT(A77/$X$2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="10"/>
+        <v>0.93301270189221952</v>
+      </c>
+      <c r="J77" s="10">
+        <f t="shared" si="11"/>
+        <v>6.6987298107780646E-2</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10">
+        <f t="shared" si="12"/>
+        <v>0.70481500799501984</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.36806079660838648</v>
+      </c>
+      <c r="N77" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.1493893821528158</v>
+      </c>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10">
+        <f t="shared" si="13"/>
+        <v>0.50000216506350936</v>
+      </c>
+      <c r="Q77" s="10">
+        <f t="shared" si="16"/>
+        <v>0.93275722439810316</v>
+      </c>
+      <c r="R77" s="10">
+        <f t="shared" si="17"/>
+        <v>6.7333708269294412E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="10">
+        <f>A78/$X$2-INT(A78/$X$2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="D78" s="10">
+        <f t="shared" si="6"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="E78" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10">
+        <f t="shared" si="9"/>
+        <v>0.5313952597646564</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="10"/>
+        <v>0.91646062035505005</v>
+      </c>
+      <c r="J78" s="10">
+        <f t="shared" si="11"/>
+        <v>5.214411988029366E-2</v>
+      </c>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10">
+        <f t="shared" si="12"/>
+        <v>0.7027939964844</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.37543448972105281</v>
+      </c>
+      <c r="N78" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.12503012972228641</v>
+      </c>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10">
+        <f t="shared" si="13"/>
+        <v>0.53137768863514534</v>
+      </c>
+      <c r="Q78" s="10">
+        <f t="shared" si="16"/>
+        <v>0.91621101557682971</v>
+      </c>
+      <c r="R78" s="10">
+        <f t="shared" si="17"/>
+        <v>5.2541460287536479E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="10">
+        <f>A79/$X$2-INT(A79/$X$2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="D79" s="10">
+        <f t="shared" si="6"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="E79" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10">
+        <f t="shared" si="9"/>
+        <v>0.56266661678215213</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" si="10"/>
+        <v>0.89826495901209813</v>
+      </c>
+      <c r="J79" s="10">
+        <f t="shared" si="11"/>
+        <v>3.9068424205749686E-2</v>
+      </c>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10">
+        <f t="shared" si="12"/>
+        <v>0.69997264971742046</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.38132651442249332</v>
+      </c>
+      <c r="N79" s="10">
+        <f t="shared" si="15"/>
+        <v>-0.10017744049057548</v>
+      </c>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10">
+        <f t="shared" si="13"/>
+        <v>0.56262937880484154</v>
+      </c>
+      <c r="Q79" s="10">
+        <f t="shared" si="16"/>
+        <v>0.8980222120257999</v>
+      </c>
+      <c r="R79" s="10">
+        <f t="shared" si="17"/>
+        <v>3.9515126737661999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="10">
+        <f>A80/$X$2-INT(A80/$X$2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="D80" s="10">
+        <f t="shared" si="6"/>
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="E80" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F80" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10">
+        <f t="shared" si="9"/>
+        <v>0.59369065729286219</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="10"/>
+        <v>0.8784975278258782</v>
+      </c>
+      <c r="J80" s="10">
+        <f t="shared" si="11"/>
+        <v>2.78118148812595E-2</v>
+      </c>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10">
+        <f t="shared" si="12"/>
+        <v>0.69636210226081974</v>
+      </c>
+      <c r="M80" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.38571361758302142</v>
+      </c>
+      <c r="N80" s="10">
+        <f t="shared" si="15"/>
+        <v>-7.4929396667967815E-2</v>
+      </c>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10">
+        <f t="shared" si="13"/>
+        <v>0.59363389942903588</v>
+      </c>
+      <c r="Q80" s="10">
+        <f t="shared" si="16"/>
+        <v>0.87826259664295647</v>
+      </c>
+      <c r="R80" s="10">
+        <f t="shared" si="17"/>
+        <v>2.8306116607026643E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="10">
+        <f>A81/$X$2-INT(A81/$X$2)</f>
+        <v>0.79</v>
+      </c>
+      <c r="D81" s="10">
+        <f t="shared" si="6"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="E81" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F81" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10">
+        <f t="shared" si="9"/>
+        <v>0.62434494358242743</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="10"/>
+        <v>0.85723633981640179</v>
+      </c>
+      <c r="J81" s="10">
+        <f t="shared" si="11"/>
+        <v>1.8418716601170892E-2</v>
+      </c>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10">
+        <f t="shared" si="12"/>
+        <v>0.69197660329590704</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.38857848531073935</v>
+      </c>
+      <c r="N81" s="10">
+        <f t="shared" si="15"/>
+        <v>-4.9385640748696745E-2</v>
+      </c>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10">
+        <f t="shared" si="13"/>
+        <v>0.62426888982944384</v>
+      </c>
+      <c r="Q81" s="10">
+        <f t="shared" si="16"/>
+        <v>0.85701015160290583</v>
+      </c>
+      <c r="R81" s="10">
+        <f t="shared" si="17"/>
+        <v>1.895866673770652E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="10">
+        <f>A82/$X$2-INT(A82/$X$2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D82" s="10">
+        <f t="shared" si="6"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="E82" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10">
+        <f t="shared" si="9"/>
+        <v>0.65450849718747361</v>
+      </c>
+      <c r="I82" s="10">
+        <f t="shared" si="10"/>
+        <v>0.83456530317942945</v>
+      </c>
+      <c r="J82" s="10">
+        <f t="shared" si="11"/>
+        <v>1.0926199633097156E-2</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10">
+        <f t="shared" si="12"/>
+        <v>0.68683346038355275</v>
+      </c>
+      <c r="M82" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.38990981128155944</v>
+      </c>
+      <c r="N82" s="10">
+        <f t="shared" si="15"/>
+        <v>-2.3646982267543845E-2</v>
+      </c>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10">
+        <f t="shared" si="13"/>
+        <v>0.65441344769475018</v>
+      </c>
+      <c r="Q82" s="10">
+        <f t="shared" si="16"/>
+        <v>0.83434875059690239</v>
+      </c>
+      <c r="R82" s="10">
+        <f t="shared" si="17"/>
+        <v>1.1509667243891797E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="10">
+        <f>A83/$X$2-INT(A83/$X$2)</f>
+        <v>0.81</v>
+      </c>
+      <c r="D83" s="10">
+        <f t="shared" si="6"/>
+        <v>0.86000000000000032</v>
+      </c>
+      <c r="E83" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F83" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10">
+        <f t="shared" si="9"/>
+        <v>0.68406227634233918</v>
+      </c>
+      <c r="I83" s="10">
+        <f t="shared" si="10"/>
+        <v>0.81057389013915504</v>
+      </c>
+      <c r="J83" s="10">
+        <f t="shared" si="11"/>
+        <v>5.3638335185057784E-3</v>
+      </c>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10">
+        <f t="shared" si="12"/>
+        <v>0.6809529711591531</v>
+      </c>
+      <c r="M83" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.3897023413600994</v>
+      </c>
+      <c r="N83" s="10">
+        <f t="shared" si="15"/>
+        <v>2.1850000493409661E-3</v>
+      </c>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10">
+        <f t="shared" si="13"/>
+        <v>0.68394860622679954</v>
+      </c>
+      <c r="Q83" s="10">
+        <f t="shared" si="16"/>
+        <v>0.81036782782170647</v>
+      </c>
+      <c r="R83" s="10">
+        <f t="shared" si="17"/>
+        <v>5.9885159234609464E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="10">
+        <f>A84/$X$2-INT(A84/$X$2)</f>
+        <v>0.82</v>
+      </c>
+      <c r="D84" s="10">
+        <f t="shared" si="6"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E84" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F84" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10">
+        <f t="shared" si="9"/>
+        <v>0.71288964578253589</v>
+      </c>
+      <c r="I84" s="10">
+        <f t="shared" si="10"/>
+        <v>0.78535678384221652</v>
+      </c>
+      <c r="J84" s="10">
+        <f t="shared" si="11"/>
+        <v>1.7535703752478704E-3</v>
+      </c>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10">
+        <f t="shared" si="12"/>
+        <v>0.67435834322713761</v>
+      </c>
+      <c r="M84" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.38795689433535591</v>
+      </c>
+      <c r="N84" s="10">
+        <f t="shared" si="15"/>
+        <v>2.8008359169261622E-2</v>
+      </c>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10">
+        <f t="shared" si="13"/>
+        <v>0.7127578036481953</v>
+      </c>
+      <c r="Q84" s="10">
+        <f t="shared" si="16"/>
+        <v>0.78516202502367261</v>
+      </c>
+      <c r="R84" s="10">
+        <f t="shared" si="17"/>
+        <v>2.4170022383012135E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="10">
+        <f>A85/$X$2-INT(A85/$X$2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="D85" s="10">
+        <f t="shared" si="6"/>
+        <v>0.97999999999999954</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10">
+        <f t="shared" si="9"/>
+        <v>0.7408768370508575</v>
+      </c>
+      <c r="I85" s="10">
+        <f t="shared" si="10"/>
+        <v>0.75901350468656514</v>
+      </c>
+      <c r="J85" s="10">
+        <f t="shared" si="11"/>
+        <v>1.096582625772502E-4</v>
+      </c>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10">
+        <f t="shared" si="12"/>
+        <v>0.66707560257115395</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.3846803586893161</v>
+      </c>
+      <c r="N85" s="10">
+        <f t="shared" si="15"/>
+        <v>5.3721182091344424E-2</v>
+      </c>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10">
+        <f t="shared" si="13"/>
+        <v>0.74072734321838718</v>
+      </c>
+      <c r="Q85" s="10">
+        <f t="shared" si="16"/>
+        <v>0.75883081799100571</v>
+      </c>
+      <c r="R85" s="10">
+        <f t="shared" si="17"/>
+        <v>8.0922132125849089E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="10">
+        <f>A86/$X$2-INT(A86/$X$2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="D86" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="7"/>
+        <v>0.96</v>
+      </c>
+      <c r="F86" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10">
+        <f t="shared" si="9"/>
+        <v>0.76791339748949805</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="10"/>
+        <v>0.73164801755993114</v>
+      </c>
+      <c r="J86" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3858495057080837E-4</v>
+      </c>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10">
+        <f t="shared" si="12"/>
+        <v>0.65913349084140449</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.37988566541126867</v>
+      </c>
+      <c r="N86" s="10">
+        <f t="shared" si="15"/>
+        <v>7.922199205058561E-2</v>
+      </c>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10">
+        <f t="shared" si="13"/>
+        <v>0.76774684194275733</v>
+      </c>
+      <c r="Q86" s="10">
+        <f t="shared" si="16"/>
+        <v>0.73147812396828193</v>
+      </c>
+      <c r="R86" s="10">
+        <f t="shared" si="17"/>
+        <v>1.1715183490871306E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="10">
+        <f>A87/$X$2-INT(A87/$X$2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="D87" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="10">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="F87" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10">
+        <f t="shared" si="9"/>
+        <v>0.79389262614623646</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" si="10"/>
+        <v>0.70336832153790052</v>
+      </c>
+      <c r="J87" s="10">
+        <f t="shared" si="11"/>
+        <v>2.7390523158633551E-3</v>
+      </c>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10">
+        <f t="shared" si="12"/>
+        <v>0.65056335192448067</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.37359173696509479</v>
+      </c>
+      <c r="N87" s="10">
+        <f t="shared" si="15"/>
+        <v>0.1044101490002888</v>
+      </c>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10">
+        <f t="shared" si="13"/>
+        <v>0.79370966620387662</v>
+      </c>
+      <c r="Q87" s="10">
+        <f t="shared" si="16"/>
+        <v>0.70321189154255093</v>
+      </c>
+      <c r="R87" s="10">
+        <f t="shared" si="17"/>
+        <v>3.5024635009365257E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="10">
+        <f>A88/$X$2-INT(A88/$X$2)</f>
+        <v>0.86</v>
+      </c>
+      <c r="D88" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="10">
+        <f t="shared" si="7"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="F88" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10">
+        <f t="shared" si="9"/>
+        <v>0.81871199487434465</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="10"/>
+        <v>0.67428602366090817</v>
+      </c>
+      <c r="J88" s="10">
+        <f t="shared" si="11"/>
+        <v>7.0019814647475087E-3</v>
+      </c>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10">
+        <f t="shared" si="12"/>
+        <v>0.64139900824336338</v>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.36582341261094919</v>
+      </c>
+      <c r="N88" s="10">
+        <f t="shared" si="15"/>
+        <v>0.12918624679234739</v>
+      </c>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10">
+        <f t="shared" si="13"/>
+        <v>0.81851335259567159</v>
+      </c>
+      <c r="Q88" s="10">
+        <f t="shared" si="16"/>
+        <v>0.67414367461958391</v>
+      </c>
+      <c r="R88" s="10">
+        <f t="shared" si="17"/>
+        <v>7.79285760119941E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="10">
+        <f>A89/$X$2-INT(A89/$X$2)</f>
+        <v>0.87</v>
+      </c>
+      <c r="D89" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="10">
+        <f t="shared" si="7"/>
+        <v>0.78000000000000025</v>
+      </c>
+      <c r="F89" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10">
+        <f t="shared" si="9"/>
+        <v>0.84227355296434436</v>
+      </c>
+      <c r="I89" s="10">
+        <f t="shared" si="10"/>
+        <v>0.64451589847223567</v>
+      </c>
+      <c r="J89" s="10">
+        <f t="shared" si="11"/>
+        <v>1.321054856341991E-2</v>
+      </c>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10">
+        <f t="shared" si="12"/>
+        <v>0.63167662727577123</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.35661135037604758</v>
+      </c>
+      <c r="N89" s="10">
+        <f t="shared" si="15"/>
+        <v>0.15345250548789924</v>
+      </c>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10">
+        <f t="shared" si="13"/>
+        <v>0.84206001229968108</v>
+      </c>
+      <c r="Q89" s="10">
+        <f t="shared" si="16"/>
+        <v>0.64438819217156962</v>
+      </c>
+      <c r="R89" s="10">
+        <f t="shared" si="17"/>
+        <v>1.4025768424456797E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="10">
+        <f>A90/$X$2-INT(A90/$X$2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="D90" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="7"/>
+        <v>0.71999999999999975</v>
+      </c>
+      <c r="F90" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10">
+        <f t="shared" si="9"/>
+        <v>0.86448431371070567</v>
+      </c>
+      <c r="I90" s="10">
+        <f t="shared" si="10"/>
+        <v>0.6141754350553279</v>
+      </c>
+      <c r="J90" s="10">
+        <f t="shared" si="11"/>
+        <v>2.1340251233966323E-2</v>
+      </c>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10">
+        <f t="shared" si="12"/>
+        <v>0.62143457881765063</v>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.34599190606144076</v>
+      </c>
+      <c r="N90" s="10">
+        <f t="shared" si="15"/>
+        <v>0.1771131572500711</v>
+      </c>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10">
+        <f t="shared" si="13"/>
+        <v>0.8642567174074981</v>
+      </c>
+      <c r="Q90" s="10">
+        <f t="shared" si="16"/>
+        <v>0.61406287549374505</v>
+      </c>
+      <c r="R90" s="10">
+        <f t="shared" si="17"/>
+        <v>2.2176597519235286E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="10">
+        <f>A91/$X$2-INT(A91/$X$2)</f>
+        <v>0.89</v>
+      </c>
+      <c r="D91" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="7"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="F91" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10">
+        <f t="shared" si="9"/>
+        <v>0.88525662138789474</v>
+      </c>
+      <c r="I91" s="10">
+        <f t="shared" si="10"/>
+        <v>0.58338437335805138</v>
+      </c>
+      <c r="J91" s="10">
+        <f t="shared" si="11"/>
+        <v>3.1359005254054328E-2</v>
+      </c>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10">
+        <f t="shared" si="12"/>
+        <v>0.61071328355511878</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.33400698976227555</v>
+      </c>
+      <c r="N91" s="10">
+        <f t="shared" si="15"/>
+        <v>0.20007482429588172</v>
+      </c>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10">
+        <f t="shared" si="13"/>
+        <v>0.88501586766477258</v>
+      </c>
+      <c r="Q91" s="10">
+        <f t="shared" si="16"/>
+        <v>0.58328740475671792</v>
+      </c>
+      <c r="R91" s="10">
+        <f t="shared" si="17"/>
+        <v>3.2213177286857575E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="10">
+        <f>A92/$X$2-INT(A92/$X$2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D92" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="7"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="F92" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10">
+        <f t="shared" si="9"/>
+        <v>0.90450849718747373</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" si="10"/>
+        <v>0.55226423163382721</v>
+      </c>
+      <c r="J92" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3227271178699567E-2</v>
+      </c>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10">
+        <f t="shared" si="12"/>
+        <v>0.59955505354248295</v>
+      </c>
+      <c r="M92" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.32070390046779745</v>
+      </c>
+      <c r="N92" s="10">
+        <f t="shared" si="15"/>
+        <v>0.22224688741568899</v>
+      </c>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10">
+        <f t="shared" si="13"/>
+        <v>0.90425553618939247</v>
+      </c>
+      <c r="Q92" s="10">
+        <f t="shared" si="16"/>
+        <v>0.55218323668351199</v>
+      </c>
+      <c r="R92" s="10">
+        <f t="shared" si="17"/>
+        <v>4.4095897932257766E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="10">
+        <f>A93/$X$2-INT(A93/$X$2)</f>
+        <v>0.91</v>
+      </c>
+      <c r="D93" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="F93" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10">
+        <f t="shared" si="9"/>
+        <v>0.92216396275100765</v>
+      </c>
+      <c r="I93" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52093782686459955</v>
+      </c>
+      <c r="J93" s="10">
+        <f t="shared" si="11"/>
+        <v>5.6898210384392744E-2</v>
+      </c>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10">
+        <f t="shared" si="12"/>
+        <v>0.58800392521589195</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.3061351393938479</v>
+      </c>
+      <c r="N93" s="10">
+        <f t="shared" si="15"/>
+        <v>0.24354184360581171</v>
+      </c>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10">
+        <f t="shared" si="13"/>
+        <v>0.92189979279945988</v>
+      </c>
+      <c r="Q93" s="10">
+        <f t="shared" si="16"/>
+        <v>0.52087312521536833</v>
+      </c>
+      <c r="R93" s="10">
+        <f t="shared" si="17"/>
+        <v>5.7777863785747452E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="10">
+        <f>A94/$X$2-INT(A94/$X$2)</f>
+        <v>0.92</v>
+      </c>
+      <c r="D94" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="7"/>
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="F94" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10">
+        <f t="shared" si="9"/>
+        <v>0.93815334002193174</v>
+      </c>
+      <c r="I94" s="10">
+        <f t="shared" si="10"/>
+        <v>0.48952879005832145</v>
+      </c>
+      <c r="J94" s="10">
+        <f t="shared" si="11"/>
+        <v>7.2317869919746758E-2</v>
+      </c>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10">
+        <f t="shared" si="12"/>
+        <v>0.57610548560164343</v>
+      </c>
+      <c r="M94" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.29035820278455265</v>
+      </c>
+      <c r="N94" s="10">
+        <f t="shared" si="15"/>
+        <v>0.26387565140290659</v>
+      </c>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10">
+        <f t="shared" si="13"/>
+        <v>0.93787900367502841</v>
+      </c>
+      <c r="Q94" s="10">
+        <f t="shared" si="16"/>
+        <v>0.48948063705802441</v>
+      </c>
+      <c r="R94" s="10">
+        <f t="shared" si="17"/>
+        <v>7.3205078378798194E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="10">
+        <f>A95/$X$2-INT(A95/$X$2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="D95" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="7"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="F95" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10">
+        <f t="shared" si="9"/>
+        <v>0.95241352623300979</v>
+      </c>
+      <c r="I95" s="10">
+        <f t="shared" si="10"/>
+        <v>0.45816107833384234</v>
+      </c>
+      <c r="J95" s="10">
+        <f t="shared" si="11"/>
+        <v>8.9425395433148203E-2</v>
+      </c>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10">
+        <f t="shared" si="12"/>
+        <v>0.56390669240501423</v>
+      </c>
+      <c r="M95" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.27343535500091148</v>
+      </c>
+      <c r="N95" s="10">
+        <f t="shared" si="15"/>
+        <v>0.28316806255723215</v>
+      </c>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10">
+        <f t="shared" si="13"/>
+        <v>0.95213010617097948</v>
+      </c>
+      <c r="Q95" s="10">
+        <f t="shared" si="16"/>
+        <v>0.45812966402037242</v>
+      </c>
+      <c r="R95" s="10">
+        <f t="shared" si="17"/>
+        <v>9.0316657543435541E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="10">
+        <f>A96/$X$2-INT(A96/$X$2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="D96" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="7"/>
+        <v>0.36000000000000032</v>
+      </c>
+      <c r="F96" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10">
+        <f t="shared" si="9"/>
+        <v>0.96488824294412556</v>
+      </c>
+      <c r="I96" s="10">
+        <f t="shared" si="10"/>
+        <v>0.42695848571879447</v>
+      </c>
+      <c r="J96" s="10">
+        <f t="shared" si="11"/>
+        <v>0.10815327133707991</v>
+      </c>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10">
+        <f t="shared" si="12"/>
+        <v>0.551455688689653</v>
+      </c>
+      <c r="M96" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.25543338279181305</v>
+      </c>
+      <c r="N96" s="10">
+        <f t="shared" si="15"/>
+        <v>0.30134293873582652</v>
+      </c>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10">
+        <f t="shared" si="13"/>
+        <v>0.96459685769647119</v>
+      </c>
+      <c r="Q96" s="10">
+        <f t="shared" si="16"/>
+        <v>0.42694393407009534</v>
+      </c>
+      <c r="R96" s="10">
+        <f t="shared" si="17"/>
+        <v>0.10904506969423283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="10">
+        <f>A97/$X$2-INT(A97/$X$2)</f>
+        <v>0.95</v>
+      </c>
+      <c r="D97" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="7"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="F97" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10">
+        <f t="shared" si="9"/>
+        <v>0.97552825814757682</v>
+      </c>
+      <c r="I97" s="10">
+        <f t="shared" si="10"/>
+        <v>0.39604415459112075</v>
+      </c>
+      <c r="J97" s="10">
+        <f t="shared" si="11"/>
+        <v>0.12842758726130288</v>
+      </c>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10">
+        <f t="shared" si="12"/>
+        <v>0.53880161287890194</v>
+      </c>
+      <c r="M97" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.23642333171724739</v>
+      </c>
+      <c r="N97" s="10">
+        <f t="shared" si="15"/>
+        <v>0.31832855200572396</v>
+      </c>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10">
+        <f t="shared" si="13"/>
+        <v>0.97523005767874948</v>
+      </c>
+      <c r="Q97" s="10">
+        <f t="shared" si="16"/>
+        <v>0.39604652303590177</v>
+      </c>
+      <c r="R97" s="10">
+        <f t="shared" si="17"/>
+        <v>0.12931640234462949</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="10">
+        <f>A98/$X$2-INT(A98/$X$2)</f>
+        <v>0.96</v>
+      </c>
+      <c r="D98" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="7"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="F98" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10">
+        <f t="shared" si="9"/>
+        <v>0.98429158056431554</v>
+      </c>
+      <c r="I98" s="10">
+        <f t="shared" si="10"/>
+        <v>0.36554008969236773</v>
+      </c>
+      <c r="J98" s="10">
+        <f t="shared" si="11"/>
+        <v>0.15016832974331717</v>
+      </c>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10">
+        <f t="shared" si="12"/>
+        <v>0.52599440482888826</v>
+      </c>
+      <c r="M98" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.21648022576393985</v>
+      </c>
+      <c r="N98" s="10">
+        <f t="shared" si="15"/>
+        <v>0.33405786791133657</v>
+      </c>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10">
+        <f t="shared" si="13"/>
+        <v>0.98398774173533066</v>
+      </c>
+      <c r="Q98" s="10">
+        <f t="shared" si="16"/>
+        <v>0.36555936888345919</v>
+      </c>
+      <c r="R98" s="10">
+        <f t="shared" si="17"/>
+        <v>0.15105065380574445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="10">
+        <f>A99/$X$2-INT(A99/$X$2)</f>
+        <v>0.97</v>
+      </c>
+      <c r="D99" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="7"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="F99" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10">
+        <f t="shared" si="9"/>
+        <v>0.99114362536434442</v>
+      </c>
+      <c r="I99" s="10">
+        <f t="shared" si="10"/>
+        <v>0.33556667663070827</v>
+      </c>
+      <c r="J99" s="10">
+        <f t="shared" si="11"/>
+        <v>0.1732896980049472</v>
+      </c>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10">
+        <f t="shared" si="12"/>
+        <v>0.51308460873872874</v>
+      </c>
+      <c r="M99" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.19568277125994932</v>
+      </c>
+      <c r="N99" s="10">
+        <f t="shared" si="15"/>
+        <v>0.34846881002882624</v>
+      </c>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10">
+        <f t="shared" si="13"/>
+        <v>0.99083534728824951</v>
+      </c>
+      <c r="Q99" s="10">
+        <f t="shared" si="16"/>
+        <v>0.33560279048195102</v>
+      </c>
+      <c r="R99" s="10">
+        <f t="shared" si="17"/>
+        <v>0.1741620489164965</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="10">
+        <f>A100/$X$2-INT(A100/$X$2)</f>
+        <v>0.98</v>
+      </c>
+      <c r="D100" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="7"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="F100" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10">
+        <f t="shared" si="9"/>
+        <v>0.99605735065723888</v>
+      </c>
+      <c r="I100" s="10">
+        <f t="shared" si="10"/>
+        <v>0.30624220677394864</v>
+      </c>
+      <c r="J100" s="10">
+        <f t="shared" si="11"/>
+        <v>0.19770044256881231</v>
+      </c>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10">
+        <f t="shared" si="12"/>
+        <v>0.50012317367566683</v>
+      </c>
+      <c r="M100" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.17411304625675059</v>
+      </c>
+      <c r="N100" s="10">
+        <f t="shared" si="15"/>
+        <v>0.3615045049533876</v>
+      </c>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10">
+        <f t="shared" si="13"/>
+        <v>0.9957458499667613</v>
+      </c>
+      <c r="Q100" s="10">
+        <f t="shared" si="16"/>
+        <v>0.3062950127604705</v>
+      </c>
+      <c r="R100" s="10">
+        <f t="shared" si="17"/>
+        <v>0.19855937755897479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="10">
+        <f>A101/$X$2-INT(A101/$X$2)</f>
+        <v>0.99</v>
+      </c>
+      <c r="D101" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="7"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+      <c r="F101" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10">
+        <f t="shared" si="9"/>
+        <v>0.99901336421413578</v>
+      </c>
+      <c r="I101" s="10">
+        <f t="shared" si="10"/>
+        <v>0.2776824104075365</v>
+      </c>
+      <c r="J101" s="10">
+        <f t="shared" si="11"/>
+        <v>0.22330422537832828</v>
+      </c>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10">
+        <f t="shared" si="12"/>
+        <v>0.48716125250237996</v>
+      </c>
+      <c r="M101" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.1518561766046605</v>
+      </c>
+      <c r="N101" s="10">
+        <f t="shared" si="15"/>
+        <v>0.37311350675259652</v>
+      </c>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10">
+        <f t="shared" si="13"/>
+        <v>0.9986998702601898</v>
+      </c>
+      <c r="Q101" s="10">
+        <f t="shared" si="16"/>
+        <v>0.27775170012823358</v>
+      </c>
+      <c r="R101" s="10">
+        <f t="shared" si="17"/>
+        <v>0.224146354623108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD7C033-776F-44CB-91A3-A15C0908095C}">
   <dimension ref="A1:J202"/>
   <sheetViews>
@@ -31654,7 +37942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508012CB-023B-470D-BEBA-9323BFF4CB21}">
   <dimension ref="B1:I9"/>
   <sheetViews>
